--- a/_files/requirements/master_data/master-machine_master_h.xlsx
+++ b/_files/requirements/master_data/master-machine_master_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87DE8962-8B86-4B30-ABA0-8756845F074C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87C67A15-A9FD-4DB6-B3C8-48DACA361958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -91,9 +91,6 @@
     <t>b2ml13213</t>
   </si>
   <si>
-    <t>00-FF-D3-E3-9A-27</t>
-  </si>
-  <si>
     <t>CM6384145127</t>
   </si>
   <si>
@@ -523,9 +520,6 @@
     <t>A4LNKML18485</t>
   </si>
   <si>
-    <t>02-50-F2-00-00-01</t>
-  </si>
-  <si>
     <t>FB5962911672</t>
   </si>
   <si>
@@ -778,21 +772,12 @@
     <t>192.168.0.392</t>
   </si>
   <si>
-    <t>F1-00-DD-3D-7B-EB</t>
-  </si>
-  <si>
     <t>192.168.0.393</t>
   </si>
   <si>
-    <t>4D-68-03-2F-DD-ED</t>
-  </si>
-  <si>
     <t>192.168.0.394</t>
   </si>
   <si>
-    <t>8E-B0-46-73-77-34</t>
-  </si>
-  <si>
     <t>192.168.0.395</t>
   </si>
   <si>
@@ -1012,9 +997,6 @@
     <t>Techno-260</t>
   </si>
   <si>
-    <t>9C-B6-D0-C5-B0-31</t>
-  </si>
-  <si>
     <t>MOSIP-Security2</t>
   </si>
   <si>
@@ -1025,6 +1007,33 @@
   </si>
   <si>
     <t>A8-1E-84-DB-EF-73</t>
+  </si>
+  <si>
+    <t>70-5A-0F-8C-20-0D</t>
+  </si>
+  <si>
+    <t>D4-3D-7E-C0-8C-4A</t>
+  </si>
+  <si>
+    <t>b2md20452</t>
+  </si>
+  <si>
+    <t>A2ML19105</t>
+  </si>
+  <si>
+    <t>DESKTOP-TB65MJM</t>
+  </si>
+  <si>
+    <t>34-17-EB-88-AB-37</t>
+  </si>
+  <si>
+    <t>70-5A-0F-84-40-A2</t>
+  </si>
+  <si>
+    <t>3C-18-A0-76-38-4F</t>
+  </si>
+  <si>
+    <t>E8-6A-64-0F-F8-A1</t>
   </si>
 </sst>
 </file>
@@ -1867,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1990,13 +1999,13 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4">
         <v>1001</v>
@@ -2022,16 +2031,16 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
       <c r="F5">
         <v>1001</v>
@@ -2057,16 +2066,16 @@
         <v>10005</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
       <c r="F6">
         <v>1001</v>
@@ -2092,16 +2101,16 @@
         <v>10006</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
       </c>
       <c r="F7">
         <v>1001</v>
@@ -2127,16 +2136,16 @@
         <v>10007</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
       </c>
       <c r="F8">
         <v>1001</v>
@@ -2162,16 +2171,16 @@
         <v>10008</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
       </c>
       <c r="F9">
         <v>1001</v>
@@ -2197,16 +2206,16 @@
         <v>10009</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
       </c>
       <c r="F10">
         <v>1001</v>
@@ -2232,16 +2241,16 @@
         <v>10010</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
       <c r="F11">
         <v>1001</v>
@@ -2267,16 +2276,16 @@
         <v>10011</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
       </c>
       <c r="F12">
         <v>1001</v>
@@ -2302,16 +2311,16 @@
         <v>10012</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
       </c>
       <c r="F13">
         <v>1001</v>
@@ -2337,16 +2346,16 @@
         <v>10013</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
       </c>
       <c r="F14">
         <v>1001</v>
@@ -2372,16 +2381,16 @@
         <v>10014</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
       </c>
       <c r="F15">
         <v>1001</v>
@@ -2407,16 +2416,16 @@
         <v>10015</v>
       </c>
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
       </c>
       <c r="F16">
         <v>1001</v>
@@ -2442,16 +2451,16 @@
         <v>10016</v>
       </c>
       <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
       </c>
       <c r="F17">
         <v>1001</v>
@@ -2477,16 +2486,16 @@
         <v>10017</v>
       </c>
       <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
       </c>
       <c r="F18">
         <v>1001</v>
@@ -2512,16 +2521,16 @@
         <v>10018</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
       </c>
       <c r="F19">
         <v>1001</v>
@@ -2547,16 +2556,16 @@
         <v>10019</v>
       </c>
       <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
       </c>
       <c r="F20">
         <v>1001</v>
@@ -2582,16 +2591,16 @@
         <v>10020</v>
       </c>
       <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
       </c>
       <c r="F21">
         <v>1001</v>
@@ -2617,16 +2626,16 @@
         <v>10021</v>
       </c>
       <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
       </c>
       <c r="F22">
         <v>1001</v>
@@ -2652,16 +2661,16 @@
         <v>10022</v>
       </c>
       <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
       </c>
       <c r="F23">
         <v>1001</v>
@@ -2687,16 +2696,16 @@
         <v>10023</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
       </c>
       <c r="F24">
         <v>1001</v>
@@ -2722,16 +2731,16 @@
         <v>10024</v>
       </c>
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
       </c>
       <c r="F25">
         <v>1001</v>
@@ -2757,16 +2766,16 @@
         <v>10025</v>
       </c>
       <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
       </c>
       <c r="F26">
         <v>1001</v>
@@ -2792,16 +2801,16 @@
         <v>10026</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>115</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
       </c>
       <c r="F27">
         <v>1001</v>
@@ -2827,16 +2836,16 @@
         <v>10027</v>
       </c>
       <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>119</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>121</v>
       </c>
       <c r="F28">
         <v>1001</v>
@@ -2862,16 +2871,16 @@
         <v>10028</v>
       </c>
       <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
         <v>122</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
       </c>
       <c r="F29">
         <v>1001</v>
@@ -2897,16 +2906,16 @@
         <v>10029</v>
       </c>
       <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>129</v>
       </c>
       <c r="F30">
         <v>1001</v>
@@ -2932,16 +2941,16 @@
         <v>10030</v>
       </c>
       <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>133</v>
       </c>
       <c r="F31">
         <v>1001</v>
@@ -2967,16 +2976,16 @@
         <v>10031</v>
       </c>
       <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>136</v>
-      </c>
-      <c r="E32" t="s">
-        <v>137</v>
       </c>
       <c r="F32">
         <v>1001</v>
@@ -3002,16 +3011,16 @@
         <v>10032</v>
       </c>
       <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>139</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
       </c>
       <c r="F33">
         <v>1001</v>
@@ -3037,16 +3046,16 @@
         <v>10033</v>
       </c>
       <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>144</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
       </c>
       <c r="F34">
         <v>1001</v>
@@ -3072,16 +3081,16 @@
         <v>10034</v>
       </c>
       <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
         <v>146</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>148</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
       </c>
       <c r="F35">
         <v>1001</v>
@@ -3107,16 +3116,16 @@
         <v>10035</v>
       </c>
       <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
         <v>150</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>153</v>
       </c>
       <c r="F36">
         <v>1001</v>
@@ -3142,16 +3151,16 @@
         <v>10036</v>
       </c>
       <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
         <v>154</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>156</v>
-      </c>
-      <c r="E37" t="s">
-        <v>157</v>
       </c>
       <c r="F37">
         <v>1001</v>
@@ -3177,16 +3186,16 @@
         <v>10037</v>
       </c>
       <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>159</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>161</v>
       </c>
       <c r="F38">
         <v>1001</v>
@@ -3212,16 +3221,16 @@
         <v>10038</v>
       </c>
       <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
         <v>162</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>163</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>164</v>
-      </c>
-      <c r="E39" t="s">
-        <v>165</v>
       </c>
       <c r="F39">
         <v>1001</v>
@@ -3247,16 +3256,16 @@
         <v>10039</v>
       </c>
       <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" t="s">
         <v>166</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>167</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>169</v>
       </c>
       <c r="F40">
         <v>1001</v>
@@ -3282,16 +3291,16 @@
         <v>10040</v>
       </c>
       <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
         <v>170</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>171</v>
-      </c>
-      <c r="D41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" t="s">
-        <v>173</v>
       </c>
       <c r="F41">
         <v>1001</v>
@@ -3317,16 +3326,16 @@
         <v>10041</v>
       </c>
       <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" t="s">
         <v>174</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>175</v>
-      </c>
-      <c r="D42" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" t="s">
-        <v>177</v>
       </c>
       <c r="F42">
         <v>1001</v>
@@ -3352,16 +3361,16 @@
         <v>10042</v>
       </c>
       <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>179</v>
-      </c>
-      <c r="D43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
       </c>
       <c r="F43">
         <v>1001</v>
@@ -3387,16 +3396,16 @@
         <v>10043</v>
       </c>
       <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" t="s">
         <v>182</v>
-      </c>
-      <c r="C44" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" t="s">
-        <v>184</v>
       </c>
       <c r="F44">
         <v>1001</v>
@@ -3422,16 +3431,16 @@
         <v>10044</v>
       </c>
       <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
         <v>185</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>186</v>
-      </c>
-      <c r="D45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" t="s">
-        <v>188</v>
       </c>
       <c r="F45">
         <v>1001</v>
@@ -3457,16 +3466,16 @@
         <v>10045</v>
       </c>
       <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
         <v>189</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>190</v>
-      </c>
-      <c r="D46" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" t="s">
-        <v>192</v>
       </c>
       <c r="F46">
         <v>1001</v>
@@ -3492,16 +3501,16 @@
         <v>10046</v>
       </c>
       <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="s">
         <v>193</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>194</v>
-      </c>
-      <c r="D47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" t="s">
-        <v>196</v>
       </c>
       <c r="F47">
         <v>1001</v>
@@ -3527,16 +3536,16 @@
         <v>10047</v>
       </c>
       <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
         <v>197</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>198</v>
-      </c>
-      <c r="D48" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" t="s">
-        <v>200</v>
       </c>
       <c r="F48">
         <v>1001</v>
@@ -3562,16 +3571,16 @@
         <v>10048</v>
       </c>
       <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
         <v>201</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>202</v>
-      </c>
-      <c r="D49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" t="s">
-        <v>204</v>
       </c>
       <c r="F49">
         <v>1001</v>
@@ -3597,16 +3606,16 @@
         <v>10049</v>
       </c>
       <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" t="s">
         <v>205</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>206</v>
-      </c>
-      <c r="D50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" t="s">
-        <v>208</v>
       </c>
       <c r="F50">
         <v>1001</v>
@@ -3632,16 +3641,16 @@
         <v>10050</v>
       </c>
       <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" t="s">
         <v>209</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>210</v>
-      </c>
-      <c r="D51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" t="s">
-        <v>212</v>
       </c>
       <c r="F51">
         <v>1001</v>
@@ -3667,16 +3676,16 @@
         <v>10051</v>
       </c>
       <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
         <v>213</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>214</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" t="s">
-        <v>216</v>
       </c>
       <c r="F52">
         <v>1001</v>
@@ -3702,16 +3711,16 @@
         <v>10052</v>
       </c>
       <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" t="s">
         <v>217</v>
-      </c>
-      <c r="C53" t="s">
-        <v>333</v>
-      </c>
-      <c r="D53" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" t="s">
-        <v>219</v>
       </c>
       <c r="F53">
         <v>1001</v>
@@ -3737,16 +3746,16 @@
         <v>10053</v>
       </c>
       <c r="B54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
         <v>220</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>221</v>
-      </c>
-      <c r="D54" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" t="s">
-        <v>223</v>
       </c>
       <c r="F54">
         <v>1001</v>
@@ -3772,16 +3781,16 @@
         <v>10054</v>
       </c>
       <c r="B55" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" t="s">
         <v>224</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>225</v>
-      </c>
-      <c r="D55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" t="s">
-        <v>227</v>
       </c>
       <c r="F55">
         <v>1001</v>
@@ -3807,16 +3816,16 @@
         <v>10055</v>
       </c>
       <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" t="s">
         <v>228</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>229</v>
-      </c>
-      <c r="D56" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" t="s">
-        <v>231</v>
       </c>
       <c r="F56">
         <v>1001</v>
@@ -3842,16 +3851,16 @@
         <v>10056</v>
       </c>
       <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
         <v>232</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>233</v>
-      </c>
-      <c r="D57" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" t="s">
-        <v>235</v>
       </c>
       <c r="F57">
         <v>1001</v>
@@ -3877,16 +3886,16 @@
         <v>10057</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" t="s">
         <v>236</v>
-      </c>
-      <c r="D58" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" t="s">
-        <v>238</v>
       </c>
       <c r="F58">
         <v>1001</v>
@@ -3912,16 +3921,16 @@
         <v>10058</v>
       </c>
       <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
         <v>239</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>240</v>
-      </c>
-      <c r="D59" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" t="s">
-        <v>242</v>
       </c>
       <c r="F59">
         <v>1001</v>
@@ -3947,16 +3956,16 @@
         <v>10059</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F60">
         <v>1001</v>
@@ -3982,16 +3991,16 @@
         <v>10060</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C61" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F61">
         <v>1001</v>
@@ -4017,16 +4026,16 @@
         <v>10061</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F62">
         <v>1001</v>
@@ -4052,16 +4061,16 @@
         <v>10062</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F63">
         <v>1001</v>
@@ -4087,16 +4096,16 @@
         <v>10063</v>
       </c>
       <c r="B64" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F64">
         <v>1001</v>
@@ -4122,16 +4131,16 @@
         <v>10064</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F65">
         <v>1001</v>
@@ -4157,16 +4166,16 @@
         <v>10065</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F66">
         <v>1001</v>
@@ -4192,16 +4201,16 @@
         <v>10066</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F67">
         <v>1001</v>
@@ -4227,16 +4236,16 @@
         <v>10067</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F68">
         <v>1001</v>
@@ -4262,16 +4271,16 @@
         <v>10068</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F69">
         <v>1001</v>
@@ -4297,16 +4306,16 @@
         <v>10069</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F70">
         <v>1001</v>
@@ -4332,16 +4341,16 @@
         <v>10070</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F71">
         <v>1001</v>
@@ -4367,16 +4376,16 @@
         <v>10071</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F72">
         <v>1001</v>
@@ -4402,16 +4411,16 @@
         <v>10072</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F73">
         <v>1001</v>
@@ -4437,16 +4446,16 @@
         <v>10073</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F74">
         <v>1001</v>
@@ -4472,16 +4481,16 @@
         <v>10074</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E75" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F75">
         <v>1001</v>
@@ -4507,16 +4516,16 @@
         <v>10075</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F76">
         <v>1001</v>
@@ -4542,16 +4551,16 @@
         <v>10076</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C77" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F77">
         <v>1001</v>
@@ -4577,16 +4586,16 @@
         <v>10077</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F78">
         <v>1001</v>
@@ -4612,16 +4621,16 @@
         <v>10078</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F79">
         <v>1001</v>
@@ -4647,16 +4656,16 @@
         <v>10079</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F80">
         <v>1001</v>
@@ -4682,16 +4691,16 @@
         <v>10080</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F81">
         <v>1001</v>
@@ -4717,16 +4726,16 @@
         <v>10081</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F82">
         <v>1001</v>
@@ -4752,16 +4761,16 @@
         <v>10082</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F83">
         <v>1001</v>
@@ -4787,16 +4796,16 @@
         <v>10083</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F84">
         <v>1001</v>
@@ -4822,16 +4831,16 @@
         <v>10084</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F85">
         <v>1001</v>
@@ -4857,16 +4866,16 @@
         <v>10085</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F86">
         <v>1001</v>
@@ -4892,16 +4901,16 @@
         <v>10086</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E87" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F87">
         <v>1001</v>
@@ -4927,16 +4936,16 @@
         <v>10087</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F88">
         <v>1001</v>
@@ -4962,16 +4971,16 @@
         <v>10088</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F89">
         <v>1001</v>
@@ -4997,16 +5006,16 @@
         <v>10089</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E90" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F90">
         <v>1001</v>
@@ -5032,16 +5041,16 @@
         <v>10090</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E91" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F91">
         <v>1001</v>
@@ -5067,16 +5076,16 @@
         <v>10091</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F92">
         <v>1001</v>
@@ -5102,16 +5111,16 @@
         <v>10092</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F93">
         <v>1001</v>
@@ -5137,16 +5146,16 @@
         <v>10093</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F94">
         <v>1001</v>
@@ -5172,16 +5181,16 @@
         <v>10094</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F95">
         <v>1001</v>
@@ -5207,16 +5216,16 @@
         <v>10095</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E96" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F96">
         <v>1001</v>
@@ -5242,16 +5251,16 @@
         <v>10096</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F97">
         <v>1001</v>
@@ -5277,16 +5286,16 @@
         <v>10097</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F98">
         <v>1001</v>
@@ -5312,16 +5321,16 @@
         <v>10098</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F99">
         <v>1001</v>
@@ -5362,7 +5371,7 @@
         <v>1001</v>
       </c>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -5397,7 +5406,7 @@
         <v>1001</v>
       </c>
       <c r="G101" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -5420,19 +5429,19 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
+        <v>337</v>
+      </c>
+      <c r="D102" t="s">
         <v>23</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>24</v>
       </c>
-      <c r="E102" t="s">
-        <v>25</v>
-      </c>
       <c r="F102">
         <v>1001</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -5452,22 +5461,22 @@
         <v>10004</v>
       </c>
       <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
         <v>26</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>27</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>28</v>
       </c>
-      <c r="E103" t="s">
-        <v>29</v>
-      </c>
       <c r="F103">
         <v>1001</v>
       </c>
       <c r="G103" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -5487,22 +5496,22 @@
         <v>10005</v>
       </c>
       <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
         <v>30</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>31</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>32</v>
       </c>
-      <c r="E104" t="s">
-        <v>33</v>
-      </c>
       <c r="F104">
         <v>1001</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -5522,22 +5531,22 @@
         <v>10006</v>
       </c>
       <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
         <v>34</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>35</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>36</v>
       </c>
-      <c r="E105" t="s">
-        <v>37</v>
-      </c>
       <c r="F105">
         <v>1001</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -5557,22 +5566,22 @@
         <v>10007</v>
       </c>
       <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
         <v>38</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>39</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>40</v>
       </c>
-      <c r="E106" t="s">
-        <v>41</v>
-      </c>
       <c r="F106">
         <v>1001</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -5592,22 +5601,22 @@
         <v>10008</v>
       </c>
       <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" t="s">
         <v>42</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>43</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>44</v>
       </c>
-      <c r="E107" t="s">
-        <v>45</v>
-      </c>
       <c r="F107">
         <v>1001</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
@@ -5627,22 +5636,22 @@
         <v>10009</v>
       </c>
       <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" t="s">
         <v>46</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>47</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>48</v>
       </c>
-      <c r="E108" t="s">
-        <v>49</v>
-      </c>
       <c r="F108">
         <v>1001</v>
       </c>
       <c r="G108" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
@@ -5662,22 +5671,22 @@
         <v>10010</v>
       </c>
       <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
         <v>50</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>51</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>52</v>
       </c>
-      <c r="E109" t="s">
-        <v>53</v>
-      </c>
       <c r="F109">
         <v>1001</v>
       </c>
       <c r="G109" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H109" t="b">
         <v>1</v>
@@ -5697,22 +5706,22 @@
         <v>10011</v>
       </c>
       <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
         <v>54</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>55</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>56</v>
       </c>
-      <c r="E110" t="s">
-        <v>57</v>
-      </c>
       <c r="F110">
         <v>1001</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
@@ -5732,22 +5741,22 @@
         <v>10012</v>
       </c>
       <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" t="s">
         <v>58</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>59</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>60</v>
       </c>
-      <c r="E111" t="s">
-        <v>61</v>
-      </c>
       <c r="F111">
         <v>1001</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -5767,22 +5776,22 @@
         <v>10013</v>
       </c>
       <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" t="s">
         <v>62</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>63</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>64</v>
       </c>
-      <c r="E112" t="s">
-        <v>65</v>
-      </c>
       <c r="F112">
         <v>1001</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -5802,22 +5811,22 @@
         <v>10014</v>
       </c>
       <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
         <v>66</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>67</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>68</v>
       </c>
-      <c r="E113" t="s">
-        <v>69</v>
-      </c>
       <c r="F113">
         <v>1001</v>
       </c>
       <c r="G113" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H113" t="b">
         <v>1</v>
@@ -5837,22 +5846,22 @@
         <v>10015</v>
       </c>
       <c r="B114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" t="s">
         <v>70</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>71</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>72</v>
       </c>
-      <c r="E114" t="s">
-        <v>73</v>
-      </c>
       <c r="F114">
         <v>1001</v>
       </c>
       <c r="G114" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5872,22 +5881,22 @@
         <v>10016</v>
       </c>
       <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" t="s">
         <v>74</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>75</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>76</v>
       </c>
-      <c r="E115" t="s">
-        <v>77</v>
-      </c>
       <c r="F115">
         <v>1001</v>
       </c>
       <c r="G115" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
@@ -5907,22 +5916,22 @@
         <v>10017</v>
       </c>
       <c r="B116" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" t="s">
         <v>78</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>79</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>80</v>
       </c>
-      <c r="E116" t="s">
-        <v>81</v>
-      </c>
       <c r="F116">
         <v>1001</v>
       </c>
       <c r="G116" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5942,22 +5951,22 @@
         <v>10018</v>
       </c>
       <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
         <v>82</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>83</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>84</v>
       </c>
-      <c r="E117" t="s">
-        <v>85</v>
-      </c>
       <c r="F117">
         <v>1001</v>
       </c>
       <c r="G117" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -5977,22 +5986,22 @@
         <v>10019</v>
       </c>
       <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
         <v>86</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>87</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>88</v>
       </c>
-      <c r="E118" t="s">
-        <v>89</v>
-      </c>
       <c r="F118">
         <v>1001</v>
       </c>
       <c r="G118" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -6012,22 +6021,22 @@
         <v>10020</v>
       </c>
       <c r="B119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" t="s">
         <v>90</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>91</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>92</v>
       </c>
-      <c r="E119" t="s">
-        <v>93</v>
-      </c>
       <c r="F119">
         <v>1001</v>
       </c>
       <c r="G119" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -6047,22 +6056,22 @@
         <v>10021</v>
       </c>
       <c r="B120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" t="s">
         <v>94</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>95</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>96</v>
       </c>
-      <c r="E120" t="s">
-        <v>97</v>
-      </c>
       <c r="F120">
         <v>1001</v>
       </c>
       <c r="G120" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
@@ -6082,22 +6091,22 @@
         <v>10022</v>
       </c>
       <c r="B121" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" t="s">
         <v>98</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>99</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>100</v>
       </c>
-      <c r="E121" t="s">
-        <v>101</v>
-      </c>
       <c r="F121">
         <v>1001</v>
       </c>
       <c r="G121" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
@@ -6117,22 +6126,22 @@
         <v>10023</v>
       </c>
       <c r="B122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" t="s">
         <v>102</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>103</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>104</v>
       </c>
-      <c r="E122" t="s">
-        <v>105</v>
-      </c>
       <c r="F122">
         <v>1001</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H122" t="b">
         <v>1</v>
@@ -6152,22 +6161,22 @@
         <v>10024</v>
       </c>
       <c r="B123" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" t="s">
         <v>106</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>107</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>108</v>
       </c>
-      <c r="E123" t="s">
-        <v>109</v>
-      </c>
       <c r="F123">
         <v>1001</v>
       </c>
       <c r="G123" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H123" t="b">
         <v>1</v>
@@ -6187,22 +6196,22 @@
         <v>10025</v>
       </c>
       <c r="B124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" t="s">
         <v>110</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>111</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>112</v>
       </c>
-      <c r="E124" t="s">
-        <v>113</v>
-      </c>
       <c r="F124">
         <v>1001</v>
       </c>
       <c r="G124" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -6222,22 +6231,22 @@
         <v>10026</v>
       </c>
       <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
         <v>114</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>115</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>116</v>
       </c>
-      <c r="E125" t="s">
-        <v>117</v>
-      </c>
       <c r="F125">
         <v>1001</v>
       </c>
       <c r="G125" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -6257,22 +6266,22 @@
         <v>10027</v>
       </c>
       <c r="B126" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" t="s">
         <v>118</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>119</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>120</v>
       </c>
-      <c r="E126" t="s">
-        <v>121</v>
-      </c>
       <c r="F126">
         <v>1001</v>
       </c>
       <c r="G126" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -6292,22 +6301,22 @@
         <v>10028</v>
       </c>
       <c r="B127" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" t="s">
         <v>122</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>123</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>124</v>
       </c>
-      <c r="E127" t="s">
-        <v>125</v>
-      </c>
       <c r="F127">
         <v>1001</v>
       </c>
       <c r="G127" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
@@ -6327,22 +6336,22 @@
         <v>10029</v>
       </c>
       <c r="B128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
         <v>126</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>127</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>128</v>
       </c>
-      <c r="E128" t="s">
-        <v>129</v>
-      </c>
       <c r="F128">
         <v>1001</v>
       </c>
       <c r="G128" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
@@ -6362,22 +6371,22 @@
         <v>10030</v>
       </c>
       <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
         <v>130</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>131</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>132</v>
       </c>
-      <c r="E129" t="s">
-        <v>133</v>
-      </c>
       <c r="F129">
         <v>1001</v>
       </c>
       <c r="G129" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
@@ -6397,22 +6406,22 @@
         <v>10031</v>
       </c>
       <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="s">
         <v>134</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>135</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>136</v>
       </c>
-      <c r="E130" t="s">
-        <v>137</v>
-      </c>
       <c r="F130">
         <v>1001</v>
       </c>
       <c r="G130" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
@@ -6432,22 +6441,22 @@
         <v>10032</v>
       </c>
       <c r="B131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" t="s">
         <v>138</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>139</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>140</v>
       </c>
-      <c r="E131" t="s">
-        <v>141</v>
-      </c>
       <c r="F131">
         <v>1001</v>
       </c>
       <c r="G131" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -6467,22 +6476,22 @@
         <v>10033</v>
       </c>
       <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
         <v>142</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>143</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>144</v>
       </c>
-      <c r="E132" t="s">
-        <v>145</v>
-      </c>
       <c r="F132">
         <v>1001</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -6502,22 +6511,22 @@
         <v>10034</v>
       </c>
       <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
         <v>146</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>147</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>148</v>
       </c>
-      <c r="E133" t="s">
-        <v>149</v>
-      </c>
       <c r="F133">
         <v>1001</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
@@ -6537,22 +6546,22 @@
         <v>10035</v>
       </c>
       <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" t="s">
         <v>150</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>151</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>152</v>
       </c>
-      <c r="E134" t="s">
-        <v>153</v>
-      </c>
       <c r="F134">
         <v>1001</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
@@ -6572,22 +6581,22 @@
         <v>10036</v>
       </c>
       <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
         <v>154</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>155</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>156</v>
       </c>
-      <c r="E135" t="s">
-        <v>157</v>
-      </c>
       <c r="F135">
         <v>1001</v>
       </c>
       <c r="G135" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -6607,22 +6616,22 @@
         <v>10037</v>
       </c>
       <c r="B136" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" t="s">
         <v>158</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>159</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>160</v>
       </c>
-      <c r="E136" t="s">
-        <v>161</v>
-      </c>
       <c r="F136">
         <v>1001</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
@@ -6642,22 +6651,22 @@
         <v>10038</v>
       </c>
       <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" t="s">
         <v>162</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>163</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>164</v>
       </c>
-      <c r="E137" t="s">
-        <v>165</v>
-      </c>
       <c r="F137">
         <v>1001</v>
       </c>
       <c r="G137" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H137" t="b">
         <v>1</v>
@@ -6677,22 +6686,22 @@
         <v>10039</v>
       </c>
       <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" t="s">
+        <v>329</v>
+      </c>
+      <c r="D138" t="s">
         <v>166</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E138" t="s">
         <v>167</v>
       </c>
-      <c r="D138" t="s">
-        <v>168</v>
-      </c>
-      <c r="E138" t="s">
-        <v>169</v>
-      </c>
       <c r="F138">
         <v>1001</v>
       </c>
       <c r="G138" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
@@ -6712,22 +6721,22 @@
         <v>10040</v>
       </c>
       <c r="B139" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" t="s">
+        <v>169</v>
+      </c>
+      <c r="D139" t="s">
         <v>170</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
         <v>171</v>
       </c>
-      <c r="D139" t="s">
-        <v>172</v>
-      </c>
-      <c r="E139" t="s">
-        <v>173</v>
-      </c>
       <c r="F139">
         <v>1001</v>
       </c>
       <c r="G139" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H139" t="b">
         <v>1</v>
@@ -6747,22 +6756,22 @@
         <v>10041</v>
       </c>
       <c r="B140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" t="s">
         <v>174</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E140" t="s">
         <v>175</v>
       </c>
-      <c r="D140" t="s">
-        <v>176</v>
-      </c>
-      <c r="E140" t="s">
-        <v>177</v>
-      </c>
       <c r="F140">
         <v>1001</v>
       </c>
       <c r="G140" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6782,22 +6791,22 @@
         <v>10042</v>
       </c>
       <c r="B141" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" t="s">
         <v>178</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>179</v>
       </c>
-      <c r="D141" t="s">
-        <v>180</v>
-      </c>
-      <c r="E141" t="s">
-        <v>181</v>
-      </c>
       <c r="F141">
         <v>1001</v>
       </c>
       <c r="G141" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H141" t="b">
         <v>1</v>
@@ -6817,22 +6826,22 @@
         <v>10043</v>
       </c>
       <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="s">
+        <v>328</v>
+      </c>
+      <c r="D142" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" t="s">
         <v>182</v>
       </c>
-      <c r="C142" t="s">
-        <v>334</v>
-      </c>
-      <c r="D142" t="s">
-        <v>183</v>
-      </c>
-      <c r="E142" t="s">
-        <v>184</v>
-      </c>
       <c r="F142">
         <v>1001</v>
       </c>
       <c r="G142" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
@@ -6852,22 +6861,22 @@
         <v>10044</v>
       </c>
       <c r="B143" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" t="s">
+        <v>184</v>
+      </c>
+      <c r="D143" t="s">
         <v>185</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
         <v>186</v>
       </c>
-      <c r="D143" t="s">
-        <v>187</v>
-      </c>
-      <c r="E143" t="s">
-        <v>188</v>
-      </c>
       <c r="F143">
         <v>1001</v>
       </c>
       <c r="G143" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
@@ -6887,22 +6896,22 @@
         <v>10045</v>
       </c>
       <c r="B144" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" t="s">
+        <v>188</v>
+      </c>
+      <c r="D144" t="s">
         <v>189</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144" t="s">
         <v>190</v>
       </c>
-      <c r="D144" t="s">
-        <v>191</v>
-      </c>
-      <c r="E144" t="s">
-        <v>192</v>
-      </c>
       <c r="F144">
         <v>1001</v>
       </c>
       <c r="G144" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
@@ -6922,22 +6931,22 @@
         <v>10046</v>
       </c>
       <c r="B145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" t="s">
         <v>193</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>194</v>
       </c>
-      <c r="D145" t="s">
-        <v>195</v>
-      </c>
-      <c r="E145" t="s">
-        <v>196</v>
-      </c>
       <c r="F145">
         <v>1001</v>
       </c>
       <c r="G145" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H145" t="b">
         <v>1</v>
@@ -6957,22 +6966,22 @@
         <v>10047</v>
       </c>
       <c r="B146" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" t="s">
+        <v>196</v>
+      </c>
+      <c r="D146" t="s">
         <v>197</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E146" t="s">
         <v>198</v>
       </c>
-      <c r="D146" t="s">
-        <v>199</v>
-      </c>
-      <c r="E146" t="s">
-        <v>200</v>
-      </c>
       <c r="F146">
         <v>1001</v>
       </c>
       <c r="G146" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -6992,22 +7001,22 @@
         <v>10048</v>
       </c>
       <c r="B147" t="s">
+        <v>199</v>
+      </c>
+      <c r="C147" t="s">
+        <v>200</v>
+      </c>
+      <c r="D147" t="s">
         <v>201</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>202</v>
       </c>
-      <c r="D147" t="s">
-        <v>203</v>
-      </c>
-      <c r="E147" t="s">
-        <v>204</v>
-      </c>
       <c r="F147">
         <v>1001</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
@@ -7027,22 +7036,22 @@
         <v>10049</v>
       </c>
       <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" t="s">
         <v>205</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>206</v>
       </c>
-      <c r="D148" t="s">
-        <v>207</v>
-      </c>
-      <c r="E148" t="s">
-        <v>208</v>
-      </c>
       <c r="F148">
         <v>1001</v>
       </c>
       <c r="G148" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
@@ -7062,22 +7071,22 @@
         <v>10050</v>
       </c>
       <c r="B149" t="s">
+        <v>207</v>
+      </c>
+      <c r="C149" t="s">
+        <v>208</v>
+      </c>
+      <c r="D149" t="s">
         <v>209</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>210</v>
       </c>
-      <c r="D149" t="s">
-        <v>211</v>
-      </c>
-      <c r="E149" t="s">
-        <v>212</v>
-      </c>
       <c r="F149">
         <v>1001</v>
       </c>
       <c r="G149" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H149" t="b">
         <v>1</v>
@@ -7097,22 +7106,22 @@
         <v>10051</v>
       </c>
       <c r="B150" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" t="s">
         <v>213</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E150" t="s">
         <v>214</v>
       </c>
-      <c r="D150" t="s">
-        <v>215</v>
-      </c>
-      <c r="E150" t="s">
-        <v>216</v>
-      </c>
       <c r="F150">
         <v>1001</v>
       </c>
       <c r="G150" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H150" t="b">
         <v>1</v>
@@ -7132,22 +7141,22 @@
         <v>10052</v>
       </c>
       <c r="B151" t="s">
+        <v>215</v>
+      </c>
+      <c r="C151" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" t="s">
+        <v>216</v>
+      </c>
+      <c r="E151" t="s">
         <v>217</v>
       </c>
-      <c r="C151" t="s">
-        <v>333</v>
-      </c>
-      <c r="D151" t="s">
-        <v>218</v>
-      </c>
-      <c r="E151" t="s">
-        <v>219</v>
-      </c>
       <c r="F151">
         <v>1001</v>
       </c>
       <c r="G151" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H151" t="b">
         <v>1</v>
@@ -7167,22 +7176,22 @@
         <v>10053</v>
       </c>
       <c r="B152" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" t="s">
+        <v>219</v>
+      </c>
+      <c r="D152" t="s">
         <v>220</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>221</v>
       </c>
-      <c r="D152" t="s">
-        <v>222</v>
-      </c>
-      <c r="E152" t="s">
-        <v>223</v>
-      </c>
       <c r="F152">
         <v>1001</v>
       </c>
       <c r="G152" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -7202,22 +7211,22 @@
         <v>10054</v>
       </c>
       <c r="B153" t="s">
+        <v>222</v>
+      </c>
+      <c r="C153" t="s">
+        <v>223</v>
+      </c>
+      <c r="D153" t="s">
         <v>224</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153" t="s">
         <v>225</v>
       </c>
-      <c r="D153" t="s">
-        <v>226</v>
-      </c>
-      <c r="E153" t="s">
-        <v>227</v>
-      </c>
       <c r="F153">
         <v>1001</v>
       </c>
       <c r="G153" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
@@ -7237,22 +7246,22 @@
         <v>10055</v>
       </c>
       <c r="B154" t="s">
+        <v>226</v>
+      </c>
+      <c r="C154" t="s">
+        <v>227</v>
+      </c>
+      <c r="D154" t="s">
         <v>228</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E154" t="s">
         <v>229</v>
       </c>
-      <c r="D154" t="s">
-        <v>230</v>
-      </c>
-      <c r="E154" t="s">
-        <v>231</v>
-      </c>
       <c r="F154">
         <v>1001</v>
       </c>
       <c r="G154" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H154" t="b">
         <v>1</v>
@@ -7272,22 +7281,22 @@
         <v>10056</v>
       </c>
       <c r="B155" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155" t="s">
+        <v>231</v>
+      </c>
+      <c r="D155" t="s">
         <v>232</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" t="s">
         <v>233</v>
       </c>
-      <c r="D155" t="s">
-        <v>234</v>
-      </c>
-      <c r="E155" t="s">
-        <v>235</v>
-      </c>
       <c r="F155">
         <v>1001</v>
       </c>
       <c r="G155" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -7307,22 +7316,22 @@
         <v>10057</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" t="s">
+        <v>235</v>
+      </c>
+      <c r="E156" t="s">
         <v>236</v>
       </c>
-      <c r="D156" t="s">
-        <v>237</v>
-      </c>
-      <c r="E156" t="s">
-        <v>238</v>
-      </c>
       <c r="F156">
         <v>1001</v>
       </c>
       <c r="G156" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -7342,22 +7351,22 @@
         <v>10058</v>
       </c>
       <c r="B157" t="s">
+        <v>237</v>
+      </c>
+      <c r="C157" t="s">
+        <v>238</v>
+      </c>
+      <c r="D157" t="s">
         <v>239</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>240</v>
       </c>
-      <c r="D157" t="s">
-        <v>241</v>
-      </c>
-      <c r="E157" t="s">
-        <v>242</v>
-      </c>
       <c r="F157">
         <v>1001</v>
       </c>
       <c r="G157" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -7377,22 +7386,22 @@
         <v>10059</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D158" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E158" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F158">
         <v>1001</v>
       </c>
       <c r="G158" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
@@ -7412,22 +7421,22 @@
         <v>10060</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D159" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E159" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F159">
         <v>1001</v>
       </c>
       <c r="G159" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -7447,22 +7456,22 @@
         <v>10061</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F160">
         <v>1001</v>
       </c>
       <c r="G160" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
@@ -7482,22 +7491,22 @@
         <v>10062</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D161" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F161">
         <v>1001</v>
       </c>
       <c r="G161" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -7517,22 +7526,22 @@
         <v>10063</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E162" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F162">
         <v>1001</v>
       </c>
       <c r="G162" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H162" t="b">
         <v>1</v>
@@ -7552,22 +7561,22 @@
         <v>10064</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E163" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F163">
         <v>1001</v>
       </c>
       <c r="G163" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
@@ -7587,22 +7596,22 @@
         <v>10065</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D164" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E164" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F164">
         <v>1001</v>
       </c>
       <c r="G164" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H164" t="b">
         <v>1</v>
@@ -7622,22 +7631,22 @@
         <v>10066</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D165" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E165" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F165">
         <v>1001</v>
       </c>
       <c r="G165" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H165" t="b">
         <v>1</v>
@@ -7657,22 +7666,22 @@
         <v>10067</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="D166" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E166" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F166">
         <v>1001</v>
       </c>
       <c r="G166" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
@@ -7692,22 +7701,22 @@
         <v>10068</v>
       </c>
       <c r="B167" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D167" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E167" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F167">
         <v>1001</v>
       </c>
       <c r="G167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
@@ -7727,22 +7736,22 @@
         <v>10069</v>
       </c>
       <c r="B168" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="D168" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E168" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F168">
         <v>1001</v>
       </c>
       <c r="G168" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -7762,22 +7771,22 @@
         <v>10070</v>
       </c>
       <c r="B169" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C169" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D169" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E169" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F169">
         <v>1001</v>
       </c>
       <c r="G169" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
@@ -7797,22 +7806,22 @@
         <v>10071</v>
       </c>
       <c r="B170" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C170" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E170" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F170">
         <v>1001</v>
       </c>
       <c r="G170" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7832,22 +7841,22 @@
         <v>10072</v>
       </c>
       <c r="B171" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E171" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F171">
         <v>1001</v>
       </c>
       <c r="G171" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7867,22 +7876,22 @@
         <v>10073</v>
       </c>
       <c r="B172" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D172" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E172" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F172">
         <v>1001</v>
       </c>
       <c r="G172" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H172" t="b">
         <v>1</v>
@@ -7902,22 +7911,22 @@
         <v>10074</v>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D173" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E173" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F173">
         <v>1001</v>
       </c>
       <c r="G173" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -7937,22 +7946,22 @@
         <v>10075</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E174" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F174">
         <v>1001</v>
       </c>
       <c r="G174" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
@@ -7972,22 +7981,22 @@
         <v>10076</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C175" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D175" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E175" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F175">
         <v>1001</v>
       </c>
       <c r="G175" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H175" t="b">
         <v>1</v>
@@ -8007,22 +8016,22 @@
         <v>10077</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D176" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E176" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F176">
         <v>1001</v>
       </c>
       <c r="G176" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H176" t="b">
         <v>1</v>
@@ -8042,22 +8051,22 @@
         <v>10078</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D177" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E177" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F177">
         <v>1001</v>
       </c>
       <c r="G177" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
@@ -8077,22 +8086,22 @@
         <v>10079</v>
       </c>
       <c r="B178" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C178" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D178" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F178">
         <v>1001</v>
       </c>
       <c r="G178" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H178" t="b">
         <v>1</v>
@@ -8112,22 +8121,22 @@
         <v>10080</v>
       </c>
       <c r="B179" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C179" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D179" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E179" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F179">
         <v>1001</v>
       </c>
       <c r="G179" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H179" t="b">
         <v>1</v>
@@ -8147,22 +8156,22 @@
         <v>10081</v>
       </c>
       <c r="B180" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C180" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D180" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F180">
         <v>1001</v>
       </c>
       <c r="G180" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -8182,22 +8191,22 @@
         <v>10082</v>
       </c>
       <c r="B181" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C181" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E181" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F181">
         <v>1001</v>
       </c>
       <c r="G181" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -8217,22 +8226,22 @@
         <v>10083</v>
       </c>
       <c r="B182" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C182" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D182" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E182" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F182">
         <v>1001</v>
       </c>
       <c r="G182" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H182" t="b">
         <v>1</v>
@@ -8252,22 +8261,22 @@
         <v>10084</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C183" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E183" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F183">
         <v>1001</v>
       </c>
       <c r="G183" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H183" t="b">
         <v>1</v>
@@ -8287,22 +8296,22 @@
         <v>10085</v>
       </c>
       <c r="B184" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C184" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E184" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F184">
         <v>1001</v>
       </c>
       <c r="G184" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H184" t="b">
         <v>1</v>
@@ -8322,22 +8331,22 @@
         <v>10086</v>
       </c>
       <c r="B185" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C185" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D185" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E185" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F185">
         <v>1001</v>
       </c>
       <c r="G185" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H185" t="b">
         <v>1</v>
@@ -8357,22 +8366,22 @@
         <v>10087</v>
       </c>
       <c r="B186" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C186" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D186" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E186" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F186">
         <v>1001</v>
       </c>
       <c r="G186" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H186" t="b">
         <v>1</v>
@@ -8392,22 +8401,22 @@
         <v>10088</v>
       </c>
       <c r="B187" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C187" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D187" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E187" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F187">
         <v>1001</v>
       </c>
       <c r="G187" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H187" t="b">
         <v>1</v>
@@ -8427,22 +8436,22 @@
         <v>10089</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C188" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D188" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E188" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F188">
         <v>1001</v>
       </c>
       <c r="G188" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
@@ -8462,22 +8471,22 @@
         <v>10090</v>
       </c>
       <c r="B189" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D189" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E189" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F189">
         <v>1001</v>
       </c>
       <c r="G189" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -8497,22 +8506,22 @@
         <v>10091</v>
       </c>
       <c r="B190" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C190" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D190" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E190" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F190">
         <v>1001</v>
       </c>
       <c r="G190" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
@@ -8532,22 +8541,22 @@
         <v>10092</v>
       </c>
       <c r="B191" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C191" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D191" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E191" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F191">
         <v>1001</v>
       </c>
       <c r="G191" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
@@ -8567,22 +8576,22 @@
         <v>10093</v>
       </c>
       <c r="B192" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D192" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E192" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F192">
         <v>1001</v>
       </c>
       <c r="G192" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H192" t="b">
         <v>1</v>
@@ -8602,22 +8611,22 @@
         <v>10094</v>
       </c>
       <c r="B193" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C193" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D193" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E193" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F193">
         <v>1001</v>
       </c>
       <c r="G193" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8637,22 +8646,22 @@
         <v>10095</v>
       </c>
       <c r="B194" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C194" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D194" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E194" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F194">
         <v>1001</v>
       </c>
       <c r="G194" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H194" t="b">
         <v>1</v>
@@ -8672,22 +8681,22 @@
         <v>10096</v>
       </c>
       <c r="B195" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C195" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D195" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E195" t="s">
+        <v>306</v>
+      </c>
+      <c r="F195">
+        <v>1001</v>
+      </c>
+      <c r="G195" t="s">
         <v>311</v>
-      </c>
-      <c r="F195">
-        <v>1001</v>
-      </c>
-      <c r="G195" t="s">
-        <v>316</v>
       </c>
       <c r="H195" t="b">
         <v>1</v>
@@ -8707,22 +8716,22 @@
         <v>10097</v>
       </c>
       <c r="B196" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C196" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E196" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F196">
         <v>1001</v>
       </c>
       <c r="G196" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -8742,22 +8751,22 @@
         <v>10098</v>
       </c>
       <c r="B197" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C197" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D197" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E197" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F197">
         <v>1001</v>
       </c>
       <c r="G197" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8792,7 +8801,7 @@
         <v>1001</v>
       </c>
       <c r="G198" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -8827,7 +8836,7 @@
         <v>1001</v>
       </c>
       <c r="G199" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H199" t="b">
         <v>1</v>
@@ -8850,19 +8859,19 @@
         <v>22</v>
       </c>
       <c r="C200" t="s">
+        <v>337</v>
+      </c>
+      <c r="D200" t="s">
         <v>23</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>24</v>
       </c>
-      <c r="E200" t="s">
-        <v>25</v>
-      </c>
       <c r="F200">
         <v>1001</v>
       </c>
       <c r="G200" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H200" t="b">
         <v>1</v>
@@ -8882,22 +8891,22 @@
         <v>10004</v>
       </c>
       <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
         <v>26</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>27</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>28</v>
       </c>
-      <c r="E201" t="s">
-        <v>29</v>
-      </c>
       <c r="F201">
         <v>1001</v>
       </c>
       <c r="G201" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -8917,22 +8926,22 @@
         <v>10005</v>
       </c>
       <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
         <v>30</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>31</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>32</v>
       </c>
-      <c r="E202" t="s">
-        <v>33</v>
-      </c>
       <c r="F202">
         <v>1001</v>
       </c>
       <c r="G202" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H202" t="b">
         <v>1</v>
@@ -8952,22 +8961,22 @@
         <v>10006</v>
       </c>
       <c r="B203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" t="s">
         <v>34</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>35</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>36</v>
       </c>
-      <c r="E203" t="s">
-        <v>37</v>
-      </c>
       <c r="F203">
         <v>1001</v>
       </c>
       <c r="G203" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H203" t="b">
         <v>1</v>
@@ -8987,22 +8996,22 @@
         <v>10007</v>
       </c>
       <c r="B204" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204" t="s">
         <v>38</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>39</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>40</v>
       </c>
-      <c r="E204" t="s">
-        <v>41</v>
-      </c>
       <c r="F204">
         <v>1001</v>
       </c>
       <c r="G204" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H204" t="b">
         <v>1</v>
@@ -9022,22 +9031,22 @@
         <v>10008</v>
       </c>
       <c r="B205" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" t="s">
         <v>42</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>43</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>44</v>
       </c>
-      <c r="E205" t="s">
-        <v>45</v>
-      </c>
       <c r="F205">
         <v>1001</v>
       </c>
       <c r="G205" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -9057,22 +9066,22 @@
         <v>10009</v>
       </c>
       <c r="B206" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" t="s">
         <v>46</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>47</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>48</v>
       </c>
-      <c r="E206" t="s">
-        <v>49</v>
-      </c>
       <c r="F206">
         <v>1001</v>
       </c>
       <c r="G206" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H206" t="b">
         <v>1</v>
@@ -9092,22 +9101,22 @@
         <v>10010</v>
       </c>
       <c r="B207" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" t="s">
         <v>50</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>51</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>52</v>
       </c>
-      <c r="E207" t="s">
-        <v>53</v>
-      </c>
       <c r="F207">
         <v>1001</v>
       </c>
       <c r="G207" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -9127,22 +9136,22 @@
         <v>10011</v>
       </c>
       <c r="B208" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" t="s">
         <v>54</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>55</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>56</v>
       </c>
-      <c r="E208" t="s">
-        <v>57</v>
-      </c>
       <c r="F208">
         <v>1001</v>
       </c>
       <c r="G208" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -9162,22 +9171,22 @@
         <v>10012</v>
       </c>
       <c r="B209" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" t="s">
         <v>58</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>59</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>60</v>
       </c>
-      <c r="E209" t="s">
-        <v>61</v>
-      </c>
       <c r="F209">
         <v>1001</v>
       </c>
       <c r="G209" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H209" t="b">
         <v>1</v>
@@ -9197,22 +9206,22 @@
         <v>10013</v>
       </c>
       <c r="B210" t="s">
+        <v>61</v>
+      </c>
+      <c r="C210" t="s">
         <v>62</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>63</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>64</v>
       </c>
-      <c r="E210" t="s">
-        <v>65</v>
-      </c>
       <c r="F210">
         <v>1001</v>
       </c>
       <c r="G210" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
@@ -9232,22 +9241,22 @@
         <v>10014</v>
       </c>
       <c r="B211" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" t="s">
         <v>66</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>67</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>68</v>
       </c>
-      <c r="E211" t="s">
-        <v>69</v>
-      </c>
       <c r="F211">
         <v>1001</v>
       </c>
       <c r="G211" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -9267,22 +9276,22 @@
         <v>10015</v>
       </c>
       <c r="B212" t="s">
+        <v>69</v>
+      </c>
+      <c r="C212" t="s">
         <v>70</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>71</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>72</v>
       </c>
-      <c r="E212" t="s">
-        <v>73</v>
-      </c>
       <c r="F212">
         <v>1001</v>
       </c>
       <c r="G212" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H212" t="b">
         <v>1</v>
@@ -9302,22 +9311,22 @@
         <v>10016</v>
       </c>
       <c r="B213" t="s">
+        <v>73</v>
+      </c>
+      <c r="C213" t="s">
         <v>74</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>75</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>76</v>
       </c>
-      <c r="E213" t="s">
-        <v>77</v>
-      </c>
       <c r="F213">
         <v>1001</v>
       </c>
       <c r="G213" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H213" t="b">
         <v>1</v>
@@ -9337,22 +9346,22 @@
         <v>10017</v>
       </c>
       <c r="B214" t="s">
+        <v>77</v>
+      </c>
+      <c r="C214" t="s">
         <v>78</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>79</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>80</v>
       </c>
-      <c r="E214" t="s">
-        <v>81</v>
-      </c>
       <c r="F214">
         <v>1001</v>
       </c>
       <c r="G214" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H214" t="b">
         <v>1</v>
@@ -9372,22 +9381,22 @@
         <v>10018</v>
       </c>
       <c r="B215" t="s">
+        <v>81</v>
+      </c>
+      <c r="C215" t="s">
         <v>82</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>83</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>84</v>
       </c>
-      <c r="E215" t="s">
-        <v>85</v>
-      </c>
       <c r="F215">
         <v>1001</v>
       </c>
       <c r="G215" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H215" t="b">
         <v>1</v>
@@ -9407,22 +9416,22 @@
         <v>10019</v>
       </c>
       <c r="B216" t="s">
+        <v>85</v>
+      </c>
+      <c r="C216" t="s">
         <v>86</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>87</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>88</v>
       </c>
-      <c r="E216" t="s">
-        <v>89</v>
-      </c>
       <c r="F216">
         <v>1001</v>
       </c>
       <c r="G216" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H216" t="b">
         <v>1</v>
@@ -9442,22 +9451,22 @@
         <v>10020</v>
       </c>
       <c r="B217" t="s">
+        <v>89</v>
+      </c>
+      <c r="C217" t="s">
         <v>90</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>91</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>92</v>
       </c>
-      <c r="E217" t="s">
-        <v>93</v>
-      </c>
       <c r="F217">
         <v>1001</v>
       </c>
       <c r="G217" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
@@ -9477,22 +9486,22 @@
         <v>10021</v>
       </c>
       <c r="B218" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" t="s">
         <v>94</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>95</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>96</v>
       </c>
-      <c r="E218" t="s">
-        <v>97</v>
-      </c>
       <c r="F218">
         <v>1001</v>
       </c>
       <c r="G218" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
@@ -9512,22 +9521,22 @@
         <v>10022</v>
       </c>
       <c r="B219" t="s">
+        <v>97</v>
+      </c>
+      <c r="C219" t="s">
         <v>98</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>99</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>100</v>
       </c>
-      <c r="E219" t="s">
-        <v>101</v>
-      </c>
       <c r="F219">
         <v>1001</v>
       </c>
       <c r="G219" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H219" t="b">
         <v>1</v>
@@ -9547,22 +9556,22 @@
         <v>10023</v>
       </c>
       <c r="B220" t="s">
+        <v>101</v>
+      </c>
+      <c r="C220" t="s">
         <v>102</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>103</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>104</v>
       </c>
-      <c r="E220" t="s">
-        <v>105</v>
-      </c>
       <c r="F220">
         <v>1001</v>
       </c>
       <c r="G220" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H220" t="b">
         <v>1</v>
@@ -9582,22 +9591,22 @@
         <v>10024</v>
       </c>
       <c r="B221" t="s">
+        <v>105</v>
+      </c>
+      <c r="C221" t="s">
         <v>106</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>107</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>108</v>
       </c>
-      <c r="E221" t="s">
-        <v>109</v>
-      </c>
       <c r="F221">
         <v>1001</v>
       </c>
       <c r="G221" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
@@ -9617,22 +9626,22 @@
         <v>10025</v>
       </c>
       <c r="B222" t="s">
+        <v>109</v>
+      </c>
+      <c r="C222" t="s">
         <v>110</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>111</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>112</v>
       </c>
-      <c r="E222" t="s">
-        <v>113</v>
-      </c>
       <c r="F222">
         <v>1001</v>
       </c>
       <c r="G222" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H222" t="b">
         <v>1</v>
@@ -9652,22 +9661,22 @@
         <v>10026</v>
       </c>
       <c r="B223" t="s">
+        <v>113</v>
+      </c>
+      <c r="C223" t="s">
         <v>114</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>115</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>116</v>
       </c>
-      <c r="E223" t="s">
-        <v>117</v>
-      </c>
       <c r="F223">
         <v>1001</v>
       </c>
       <c r="G223" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -9687,22 +9696,22 @@
         <v>10027</v>
       </c>
       <c r="B224" t="s">
+        <v>117</v>
+      </c>
+      <c r="C224" t="s">
         <v>118</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>119</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>120</v>
       </c>
-      <c r="E224" t="s">
-        <v>121</v>
-      </c>
       <c r="F224">
         <v>1001</v>
       </c>
       <c r="G224" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H224" t="b">
         <v>1</v>
@@ -9722,22 +9731,22 @@
         <v>10028</v>
       </c>
       <c r="B225" t="s">
+        <v>121</v>
+      </c>
+      <c r="C225" t="s">
         <v>122</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>123</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>124</v>
       </c>
-      <c r="E225" t="s">
-        <v>125</v>
-      </c>
       <c r="F225">
         <v>1001</v>
       </c>
       <c r="G225" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H225" t="b">
         <v>1</v>
@@ -9757,22 +9766,22 @@
         <v>10029</v>
       </c>
       <c r="B226" t="s">
+        <v>125</v>
+      </c>
+      <c r="C226" t="s">
         <v>126</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>127</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>128</v>
       </c>
-      <c r="E226" t="s">
-        <v>129</v>
-      </c>
       <c r="F226">
         <v>1001</v>
       </c>
       <c r="G226" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H226" t="b">
         <v>1</v>
@@ -9792,22 +9801,22 @@
         <v>10030</v>
       </c>
       <c r="B227" t="s">
+        <v>129</v>
+      </c>
+      <c r="C227" t="s">
         <v>130</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>131</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>132</v>
       </c>
-      <c r="E227" t="s">
-        <v>133</v>
-      </c>
       <c r="F227">
         <v>1001</v>
       </c>
       <c r="G227" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H227" t="b">
         <v>1</v>
@@ -9827,22 +9836,22 @@
         <v>10031</v>
       </c>
       <c r="B228" t="s">
+        <v>133</v>
+      </c>
+      <c r="C228" t="s">
         <v>134</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>135</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>136</v>
       </c>
-      <c r="E228" t="s">
-        <v>137</v>
-      </c>
       <c r="F228">
         <v>1001</v>
       </c>
       <c r="G228" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -9862,22 +9871,22 @@
         <v>10032</v>
       </c>
       <c r="B229" t="s">
+        <v>137</v>
+      </c>
+      <c r="C229" t="s">
         <v>138</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>139</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>140</v>
       </c>
-      <c r="E229" t="s">
-        <v>141</v>
-      </c>
       <c r="F229">
         <v>1001</v>
       </c>
       <c r="G229" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H229" t="b">
         <v>1</v>
@@ -9897,22 +9906,22 @@
         <v>10033</v>
       </c>
       <c r="B230" t="s">
+        <v>141</v>
+      </c>
+      <c r="C230" t="s">
         <v>142</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>143</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>144</v>
       </c>
-      <c r="E230" t="s">
-        <v>145</v>
-      </c>
       <c r="F230">
         <v>1001</v>
       </c>
       <c r="G230" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -9932,22 +9941,22 @@
         <v>10034</v>
       </c>
       <c r="B231" t="s">
+        <v>145</v>
+      </c>
+      <c r="C231" t="s">
         <v>146</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>147</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>148</v>
       </c>
-      <c r="E231" t="s">
-        <v>149</v>
-      </c>
       <c r="F231">
         <v>1001</v>
       </c>
       <c r="G231" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -9967,22 +9976,22 @@
         <v>10035</v>
       </c>
       <c r="B232" t="s">
+        <v>149</v>
+      </c>
+      <c r="C232" t="s">
         <v>150</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>151</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>152</v>
       </c>
-      <c r="E232" t="s">
-        <v>153</v>
-      </c>
       <c r="F232">
         <v>1001</v>
       </c>
       <c r="G232" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H232" t="b">
         <v>1</v>
@@ -10002,22 +10011,22 @@
         <v>10036</v>
       </c>
       <c r="B233" t="s">
+        <v>153</v>
+      </c>
+      <c r="C233" t="s">
         <v>154</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>155</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>156</v>
       </c>
-      <c r="E233" t="s">
-        <v>157</v>
-      </c>
       <c r="F233">
         <v>1001</v>
       </c>
       <c r="G233" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H233" t="b">
         <v>1</v>
@@ -10037,22 +10046,22 @@
         <v>10037</v>
       </c>
       <c r="B234" t="s">
+        <v>157</v>
+      </c>
+      <c r="C234" t="s">
         <v>158</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>159</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>160</v>
       </c>
-      <c r="E234" t="s">
-        <v>161</v>
-      </c>
       <c r="F234">
         <v>1001</v>
       </c>
       <c r="G234" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -10072,22 +10081,22 @@
         <v>10038</v>
       </c>
       <c r="B235" t="s">
+        <v>161</v>
+      </c>
+      <c r="C235" t="s">
         <v>162</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>163</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>164</v>
       </c>
-      <c r="E235" t="s">
-        <v>165</v>
-      </c>
       <c r="F235">
         <v>1001</v>
       </c>
       <c r="G235" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H235" t="b">
         <v>1</v>
@@ -10107,22 +10116,22 @@
         <v>10039</v>
       </c>
       <c r="B236" t="s">
+        <v>165</v>
+      </c>
+      <c r="C236" t="s">
+        <v>329</v>
+      </c>
+      <c r="D236" t="s">
         <v>166</v>
       </c>
-      <c r="C236" t="s">
+      <c r="E236" t="s">
         <v>167</v>
       </c>
-      <c r="D236" t="s">
-        <v>168</v>
-      </c>
-      <c r="E236" t="s">
-        <v>169</v>
-      </c>
       <c r="F236">
         <v>1001</v>
       </c>
       <c r="G236" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H236" t="b">
         <v>1</v>
@@ -10142,22 +10151,22 @@
         <v>10040</v>
       </c>
       <c r="B237" t="s">
+        <v>168</v>
+      </c>
+      <c r="C237" t="s">
+        <v>169</v>
+      </c>
+      <c r="D237" t="s">
         <v>170</v>
       </c>
-      <c r="C237" t="s">
+      <c r="E237" t="s">
         <v>171</v>
       </c>
-      <c r="D237" t="s">
-        <v>172</v>
-      </c>
-      <c r="E237" t="s">
-        <v>173</v>
-      </c>
       <c r="F237">
         <v>1001</v>
       </c>
       <c r="G237" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H237" t="b">
         <v>1</v>
@@ -10177,22 +10186,22 @@
         <v>10041</v>
       </c>
       <c r="B238" t="s">
+        <v>172</v>
+      </c>
+      <c r="C238" t="s">
+        <v>173</v>
+      </c>
+      <c r="D238" t="s">
         <v>174</v>
       </c>
-      <c r="C238" t="s">
+      <c r="E238" t="s">
         <v>175</v>
       </c>
-      <c r="D238" t="s">
-        <v>176</v>
-      </c>
-      <c r="E238" t="s">
-        <v>177</v>
-      </c>
       <c r="F238">
         <v>1001</v>
       </c>
       <c r="G238" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10212,22 +10221,22 @@
         <v>10042</v>
       </c>
       <c r="B239" t="s">
+        <v>176</v>
+      </c>
+      <c r="C239" t="s">
+        <v>177</v>
+      </c>
+      <c r="D239" t="s">
         <v>178</v>
       </c>
-      <c r="C239" t="s">
+      <c r="E239" t="s">
         <v>179</v>
       </c>
-      <c r="D239" t="s">
-        <v>180</v>
-      </c>
-      <c r="E239" t="s">
-        <v>181</v>
-      </c>
       <c r="F239">
         <v>1001</v>
       </c>
       <c r="G239" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -10247,22 +10256,22 @@
         <v>10043</v>
       </c>
       <c r="B240" t="s">
+        <v>180</v>
+      </c>
+      <c r="C240" t="s">
+        <v>328</v>
+      </c>
+      <c r="D240" t="s">
+        <v>181</v>
+      </c>
+      <c r="E240" t="s">
         <v>182</v>
       </c>
-      <c r="C240" t="s">
-        <v>334</v>
-      </c>
-      <c r="D240" t="s">
-        <v>183</v>
-      </c>
-      <c r="E240" t="s">
-        <v>184</v>
-      </c>
       <c r="F240">
         <v>1001</v>
       </c>
       <c r="G240" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H240" t="b">
         <v>1</v>
@@ -10282,22 +10291,22 @@
         <v>10044</v>
       </c>
       <c r="B241" t="s">
+        <v>183</v>
+      </c>
+      <c r="C241" t="s">
+        <v>184</v>
+      </c>
+      <c r="D241" t="s">
         <v>185</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E241" t="s">
         <v>186</v>
       </c>
-      <c r="D241" t="s">
-        <v>187</v>
-      </c>
-      <c r="E241" t="s">
-        <v>188</v>
-      </c>
       <c r="F241">
         <v>1001</v>
       </c>
       <c r="G241" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H241" t="b">
         <v>1</v>
@@ -10317,22 +10326,22 @@
         <v>10045</v>
       </c>
       <c r="B242" t="s">
+        <v>187</v>
+      </c>
+      <c r="C242" t="s">
+        <v>188</v>
+      </c>
+      <c r="D242" t="s">
         <v>189</v>
       </c>
-      <c r="C242" t="s">
+      <c r="E242" t="s">
         <v>190</v>
       </c>
-      <c r="D242" t="s">
-        <v>191</v>
-      </c>
-      <c r="E242" t="s">
-        <v>192</v>
-      </c>
       <c r="F242">
         <v>1001</v>
       </c>
       <c r="G242" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H242" t="b">
         <v>1</v>
@@ -10352,22 +10361,22 @@
         <v>10046</v>
       </c>
       <c r="B243" t="s">
+        <v>191</v>
+      </c>
+      <c r="C243" t="s">
+        <v>192</v>
+      </c>
+      <c r="D243" t="s">
         <v>193</v>
       </c>
-      <c r="C243" t="s">
+      <c r="E243" t="s">
         <v>194</v>
       </c>
-      <c r="D243" t="s">
-        <v>195</v>
-      </c>
-      <c r="E243" t="s">
-        <v>196</v>
-      </c>
       <c r="F243">
         <v>1001</v>
       </c>
       <c r="G243" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H243" t="b">
         <v>1</v>
@@ -10387,22 +10396,22 @@
         <v>10047</v>
       </c>
       <c r="B244" t="s">
+        <v>195</v>
+      </c>
+      <c r="C244" t="s">
+        <v>196</v>
+      </c>
+      <c r="D244" t="s">
         <v>197</v>
       </c>
-      <c r="C244" t="s">
+      <c r="E244" t="s">
         <v>198</v>
       </c>
-      <c r="D244" t="s">
-        <v>199</v>
-      </c>
-      <c r="E244" t="s">
-        <v>200</v>
-      </c>
       <c r="F244">
         <v>1001</v>
       </c>
       <c r="G244" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H244" t="b">
         <v>1</v>
@@ -10422,22 +10431,22 @@
         <v>10048</v>
       </c>
       <c r="B245" t="s">
+        <v>199</v>
+      </c>
+      <c r="C245" t="s">
+        <v>200</v>
+      </c>
+      <c r="D245" t="s">
         <v>201</v>
       </c>
-      <c r="C245" t="s">
+      <c r="E245" t="s">
         <v>202</v>
       </c>
-      <c r="D245" t="s">
-        <v>203</v>
-      </c>
-      <c r="E245" t="s">
-        <v>204</v>
-      </c>
       <c r="F245">
         <v>1001</v>
       </c>
       <c r="G245" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -10457,22 +10466,22 @@
         <v>10049</v>
       </c>
       <c r="B246" t="s">
+        <v>203</v>
+      </c>
+      <c r="C246" t="s">
+        <v>204</v>
+      </c>
+      <c r="D246" t="s">
         <v>205</v>
       </c>
-      <c r="C246" t="s">
+      <c r="E246" t="s">
         <v>206</v>
       </c>
-      <c r="D246" t="s">
-        <v>207</v>
-      </c>
-      <c r="E246" t="s">
-        <v>208</v>
-      </c>
       <c r="F246">
         <v>1001</v>
       </c>
       <c r="G246" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H246" t="b">
         <v>1</v>
@@ -10492,22 +10501,22 @@
         <v>10050</v>
       </c>
       <c r="B247" t="s">
+        <v>207</v>
+      </c>
+      <c r="C247" t="s">
+        <v>208</v>
+      </c>
+      <c r="D247" t="s">
         <v>209</v>
       </c>
-      <c r="C247" t="s">
+      <c r="E247" t="s">
         <v>210</v>
       </c>
-      <c r="D247" t="s">
-        <v>211</v>
-      </c>
-      <c r="E247" t="s">
-        <v>212</v>
-      </c>
       <c r="F247">
         <v>1001</v>
       </c>
       <c r="G247" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -10527,22 +10536,22 @@
         <v>10051</v>
       </c>
       <c r="B248" t="s">
+        <v>211</v>
+      </c>
+      <c r="C248" t="s">
+        <v>212</v>
+      </c>
+      <c r="D248" t="s">
         <v>213</v>
       </c>
-      <c r="C248" t="s">
+      <c r="E248" t="s">
         <v>214</v>
       </c>
-      <c r="D248" t="s">
-        <v>215</v>
-      </c>
-      <c r="E248" t="s">
-        <v>216</v>
-      </c>
       <c r="F248">
         <v>1001</v>
       </c>
       <c r="G248" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H248" t="b">
         <v>1</v>
@@ -10562,22 +10571,22 @@
         <v>10052</v>
       </c>
       <c r="B249" t="s">
+        <v>215</v>
+      </c>
+      <c r="C249" t="s">
+        <v>327</v>
+      </c>
+      <c r="D249" t="s">
+        <v>216</v>
+      </c>
+      <c r="E249" t="s">
         <v>217</v>
       </c>
-      <c r="C249" t="s">
-        <v>333</v>
-      </c>
-      <c r="D249" t="s">
-        <v>218</v>
-      </c>
-      <c r="E249" t="s">
-        <v>219</v>
-      </c>
       <c r="F249">
         <v>1001</v>
       </c>
       <c r="G249" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H249" t="b">
         <v>1</v>
@@ -10597,22 +10606,22 @@
         <v>10053</v>
       </c>
       <c r="B250" t="s">
+        <v>218</v>
+      </c>
+      <c r="C250" t="s">
+        <v>219</v>
+      </c>
+      <c r="D250" t="s">
         <v>220</v>
       </c>
-      <c r="C250" t="s">
+      <c r="E250" t="s">
         <v>221</v>
       </c>
-      <c r="D250" t="s">
-        <v>222</v>
-      </c>
-      <c r="E250" t="s">
-        <v>223</v>
-      </c>
       <c r="F250">
         <v>1001</v>
       </c>
       <c r="G250" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H250" t="b">
         <v>1</v>
@@ -10632,22 +10641,22 @@
         <v>10054</v>
       </c>
       <c r="B251" t="s">
+        <v>222</v>
+      </c>
+      <c r="C251" t="s">
+        <v>223</v>
+      </c>
+      <c r="D251" t="s">
         <v>224</v>
       </c>
-      <c r="C251" t="s">
+      <c r="E251" t="s">
         <v>225</v>
       </c>
-      <c r="D251" t="s">
-        <v>226</v>
-      </c>
-      <c r="E251" t="s">
-        <v>227</v>
-      </c>
       <c r="F251">
         <v>1001</v>
       </c>
       <c r="G251" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H251" t="b">
         <v>1</v>
@@ -10667,22 +10676,22 @@
         <v>10055</v>
       </c>
       <c r="B252" t="s">
+        <v>226</v>
+      </c>
+      <c r="C252" t="s">
+        <v>227</v>
+      </c>
+      <c r="D252" t="s">
         <v>228</v>
       </c>
-      <c r="C252" t="s">
+      <c r="E252" t="s">
         <v>229</v>
       </c>
-      <c r="D252" t="s">
-        <v>230</v>
-      </c>
-      <c r="E252" t="s">
-        <v>231</v>
-      </c>
       <c r="F252">
         <v>1001</v>
       </c>
       <c r="G252" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -10702,22 +10711,22 @@
         <v>10056</v>
       </c>
       <c r="B253" t="s">
+        <v>230</v>
+      </c>
+      <c r="C253" t="s">
+        <v>231</v>
+      </c>
+      <c r="D253" t="s">
         <v>232</v>
       </c>
-      <c r="C253" t="s">
+      <c r="E253" t="s">
         <v>233</v>
       </c>
-      <c r="D253" t="s">
-        <v>234</v>
-      </c>
-      <c r="E253" t="s">
-        <v>235</v>
-      </c>
       <c r="F253">
         <v>1001</v>
       </c>
       <c r="G253" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H253" t="b">
         <v>1</v>
@@ -10737,22 +10746,22 @@
         <v>10057</v>
       </c>
       <c r="B254" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C254" t="s">
+        <v>234</v>
+      </c>
+      <c r="D254" t="s">
+        <v>235</v>
+      </c>
+      <c r="E254" t="s">
         <v>236</v>
       </c>
-      <c r="D254" t="s">
-        <v>237</v>
-      </c>
-      <c r="E254" t="s">
-        <v>238</v>
-      </c>
       <c r="F254">
         <v>1001</v>
       </c>
       <c r="G254" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H254" t="b">
         <v>1</v>
@@ -10772,22 +10781,22 @@
         <v>10058</v>
       </c>
       <c r="B255" t="s">
+        <v>237</v>
+      </c>
+      <c r="C255" t="s">
+        <v>238</v>
+      </c>
+      <c r="D255" t="s">
         <v>239</v>
       </c>
-      <c r="C255" t="s">
+      <c r="E255" t="s">
         <v>240</v>
       </c>
-      <c r="D255" t="s">
-        <v>241</v>
-      </c>
-      <c r="E255" t="s">
-        <v>242</v>
-      </c>
       <c r="F255">
         <v>1001</v>
       </c>
       <c r="G255" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H255" t="b">
         <v>1</v>
@@ -10807,22 +10816,22 @@
         <v>10059</v>
       </c>
       <c r="B256" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C256" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D256" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E256" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F256">
         <v>1001</v>
       </c>
       <c r="G256" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H256" t="b">
         <v>1</v>
@@ -10842,22 +10851,22 @@
         <v>10060</v>
       </c>
       <c r="B257" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C257" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D257" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E257" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F257">
         <v>1001</v>
       </c>
       <c r="G257" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H257" t="b">
         <v>1</v>
@@ -10877,22 +10886,22 @@
         <v>10061</v>
       </c>
       <c r="B258" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C258" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D258" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E258" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F258">
         <v>1001</v>
       </c>
       <c r="G258" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H258" t="b">
         <v>1</v>
@@ -10912,22 +10921,22 @@
         <v>10062</v>
       </c>
       <c r="B259" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C259" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D259" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E259" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F259">
         <v>1001</v>
       </c>
       <c r="G259" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H259" t="b">
         <v>1</v>
@@ -10947,22 +10956,22 @@
         <v>10063</v>
       </c>
       <c r="B260" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C260" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D260" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E260" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F260">
         <v>1001</v>
       </c>
       <c r="G260" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H260" t="b">
         <v>1</v>
@@ -10982,22 +10991,22 @@
         <v>10064</v>
       </c>
       <c r="B261" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C261" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D261" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E261" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F261">
         <v>1001</v>
       </c>
       <c r="G261" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H261" t="b">
         <v>1</v>
@@ -11017,22 +11026,22 @@
         <v>10065</v>
       </c>
       <c r="B262" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C262" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D262" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E262" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F262">
         <v>1001</v>
       </c>
       <c r="G262" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H262" t="b">
         <v>1</v>
@@ -11052,22 +11061,22 @@
         <v>10066</v>
       </c>
       <c r="B263" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C263" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D263" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E263" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F263">
         <v>1001</v>
       </c>
       <c r="G263" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H263" t="b">
         <v>1</v>
@@ -11087,22 +11096,22 @@
         <v>10067</v>
       </c>
       <c r="B264" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="C264" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="D264" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E264" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F264">
         <v>1001</v>
       </c>
       <c r="G264" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H264" t="b">
         <v>1</v>
@@ -11122,22 +11131,22 @@
         <v>10068</v>
       </c>
       <c r="B265" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="C265" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D265" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E265" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F265">
         <v>1001</v>
       </c>
       <c r="G265" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H265" t="b">
         <v>1</v>
@@ -11157,22 +11166,22 @@
         <v>10069</v>
       </c>
       <c r="B266" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="C266" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="D266" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E266" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F266">
         <v>1001</v>
       </c>
       <c r="G266" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H266" t="b">
         <v>1</v>
@@ -11192,22 +11201,22 @@
         <v>10070</v>
       </c>
       <c r="B267" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C267" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D267" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E267" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F267">
         <v>1001</v>
       </c>
       <c r="G267" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H267" t="b">
         <v>1</v>
@@ -11227,22 +11236,22 @@
         <v>10071</v>
       </c>
       <c r="B268" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C268" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D268" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E268" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F268">
         <v>1001</v>
       </c>
       <c r="G268" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H268" t="b">
         <v>1</v>
@@ -11262,22 +11271,22 @@
         <v>10072</v>
       </c>
       <c r="B269" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C269" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D269" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E269" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F269">
         <v>1001</v>
       </c>
       <c r="G269" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H269" t="b">
         <v>1</v>
@@ -11297,22 +11306,22 @@
         <v>10073</v>
       </c>
       <c r="B270" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C270" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D270" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E270" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F270">
         <v>1001</v>
       </c>
       <c r="G270" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H270" t="b">
         <v>1</v>
@@ -11332,22 +11341,22 @@
         <v>10074</v>
       </c>
       <c r="B271" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C271" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D271" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E271" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F271">
         <v>1001</v>
       </c>
       <c r="G271" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H271" t="b">
         <v>1</v>
@@ -11367,22 +11376,22 @@
         <v>10075</v>
       </c>
       <c r="B272" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C272" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D272" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E272" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F272">
         <v>1001</v>
       </c>
       <c r="G272" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H272" t="b">
         <v>1</v>
@@ -11402,22 +11411,22 @@
         <v>10076</v>
       </c>
       <c r="B273" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C273" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D273" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E273" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F273">
         <v>1001</v>
       </c>
       <c r="G273" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H273" t="b">
         <v>1</v>
@@ -11437,22 +11446,22 @@
         <v>10077</v>
       </c>
       <c r="B274" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C274" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D274" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E274" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F274">
         <v>1001</v>
       </c>
       <c r="G274" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H274" t="b">
         <v>1</v>
@@ -11472,22 +11481,22 @@
         <v>10078</v>
       </c>
       <c r="B275" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C275" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D275" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E275" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F275">
         <v>1001</v>
       </c>
       <c r="G275" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H275" t="b">
         <v>1</v>
@@ -11507,22 +11516,22 @@
         <v>10079</v>
       </c>
       <c r="B276" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C276" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D276" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E276" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F276">
         <v>1001</v>
       </c>
       <c r="G276" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H276" t="b">
         <v>1</v>
@@ -11542,22 +11551,22 @@
         <v>10080</v>
       </c>
       <c r="B277" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C277" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D277" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E277" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F277">
         <v>1001</v>
       </c>
       <c r="G277" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H277" t="b">
         <v>1</v>
@@ -11577,22 +11586,22 @@
         <v>10081</v>
       </c>
       <c r="B278" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D278" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E278" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F278">
         <v>1001</v>
       </c>
       <c r="G278" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H278" t="b">
         <v>1</v>
@@ -11612,22 +11621,22 @@
         <v>10082</v>
       </c>
       <c r="B279" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C279" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D279" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E279" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F279">
         <v>1001</v>
       </c>
       <c r="G279" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H279" t="b">
         <v>1</v>
@@ -11647,22 +11656,22 @@
         <v>10083</v>
       </c>
       <c r="B280" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C280" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D280" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E280" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F280">
         <v>1001</v>
       </c>
       <c r="G280" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H280" t="b">
         <v>1</v>
@@ -11682,22 +11691,22 @@
         <v>10084</v>
       </c>
       <c r="B281" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C281" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D281" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E281" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F281">
         <v>1001</v>
       </c>
       <c r="G281" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H281" t="b">
         <v>1</v>
@@ -11717,22 +11726,22 @@
         <v>10085</v>
       </c>
       <c r="B282" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C282" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D282" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E282" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F282">
         <v>1001</v>
       </c>
       <c r="G282" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H282" t="b">
         <v>1</v>
@@ -11752,22 +11761,22 @@
         <v>10086</v>
       </c>
       <c r="B283" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C283" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D283" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E283" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F283">
         <v>1001</v>
       </c>
       <c r="G283" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H283" t="b">
         <v>1</v>
@@ -11787,22 +11796,22 @@
         <v>10087</v>
       </c>
       <c r="B284" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C284" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D284" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E284" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F284">
         <v>1001</v>
       </c>
       <c r="G284" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H284" t="b">
         <v>1</v>
@@ -11822,22 +11831,22 @@
         <v>10088</v>
       </c>
       <c r="B285" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C285" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D285" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E285" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F285">
         <v>1001</v>
       </c>
       <c r="G285" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H285" t="b">
         <v>1</v>
@@ -11857,22 +11866,22 @@
         <v>10089</v>
       </c>
       <c r="B286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C286" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D286" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E286" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F286">
         <v>1001</v>
       </c>
       <c r="G286" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H286" t="b">
         <v>1</v>
@@ -11892,22 +11901,22 @@
         <v>10090</v>
       </c>
       <c r="B287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C287" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D287" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E287" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F287">
         <v>1001</v>
       </c>
       <c r="G287" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H287" t="b">
         <v>1</v>
@@ -11927,22 +11936,22 @@
         <v>10091</v>
       </c>
       <c r="B288" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C288" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D288" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E288" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F288">
         <v>1001</v>
       </c>
       <c r="G288" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H288" t="b">
         <v>1</v>
@@ -11962,22 +11971,22 @@
         <v>10092</v>
       </c>
       <c r="B289" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C289" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D289" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E289" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F289">
         <v>1001</v>
       </c>
       <c r="G289" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H289" t="b">
         <v>1</v>
@@ -11997,22 +12006,22 @@
         <v>10093</v>
       </c>
       <c r="B290" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C290" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D290" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E290" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F290">
         <v>1001</v>
       </c>
       <c r="G290" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H290" t="b">
         <v>1</v>
@@ -12032,22 +12041,22 @@
         <v>10094</v>
       </c>
       <c r="B291" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C291" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D291" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E291" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F291">
         <v>1001</v>
       </c>
       <c r="G291" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H291" t="b">
         <v>1</v>
@@ -12067,22 +12076,22 @@
         <v>10095</v>
       </c>
       <c r="B292" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C292" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D292" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E292" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F292">
         <v>1001</v>
       </c>
       <c r="G292" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H292" t="b">
         <v>1</v>
@@ -12102,22 +12111,22 @@
         <v>10096</v>
       </c>
       <c r="B293" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C293" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D293" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E293" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F293">
         <v>1001</v>
       </c>
       <c r="G293" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H293" t="b">
         <v>1</v>
@@ -12137,22 +12146,22 @@
         <v>10097</v>
       </c>
       <c r="B294" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C294" t="s">
+        <v>307</v>
+      </c>
+      <c r="D294" t="s">
+        <v>220</v>
+      </c>
+      <c r="E294" t="s">
+        <v>308</v>
+      </c>
+      <c r="F294">
+        <v>1001</v>
+      </c>
+      <c r="G294" t="s">
         <v>312</v>
-      </c>
-      <c r="D294" t="s">
-        <v>222</v>
-      </c>
-      <c r="E294" t="s">
-        <v>313</v>
-      </c>
-      <c r="F294">
-        <v>1001</v>
-      </c>
-      <c r="G294" t="s">
-        <v>317</v>
       </c>
       <c r="H294" t="b">
         <v>1</v>
@@ -12172,22 +12181,22 @@
         <v>10098</v>
       </c>
       <c r="B295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C295" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D295" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E295" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F295">
         <v>1001</v>
       </c>
       <c r="G295" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H295" t="b">
         <v>1</v>

--- a/_files/requirements/master_data/master-machine_master_h.xlsx
+++ b/_files/requirements/master_data/master-machine_master_h.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87C67A15-A9FD-4DB6-B3C8-48DACA361958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83540F9-8D52-41C0-8428-07AC47EA57DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -1034,6 +1034,12 @@
   </si>
   <si>
     <t>E8-6A-64-0F-F8-A1</t>
+  </si>
+  <si>
+    <t>A2ML28933</t>
+  </si>
+  <si>
+    <t>8C-16-45-FA-94-41</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11201,10 +11207,10 @@
         <v>10070</v>
       </c>
       <c r="B267" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="C267" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="D267" t="s">
         <v>201</v>

--- a/_files/requirements/master_data/master-machine_master_h.xlsx
+++ b/_files/requirements/master_data/master-machine_master_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83540F9-8D52-41C0-8428-07AC47EA57DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEECE21-CBDC-4CD0-91ED-5DBAC476F7AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,15 +781,9 @@
     <t>192.168.0.395</t>
   </si>
   <si>
-    <t>56-2C-10-86-DE-ED</t>
-  </si>
-  <si>
     <t>192.168.0.396</t>
   </si>
   <si>
-    <t>11-DE-EB-B6-96-7D</t>
-  </si>
-  <si>
     <t>192.168.0.397</t>
   </si>
   <si>
@@ -1040,6 +1034,12 @@
   </si>
   <si>
     <t>8C-16-45-FA-94-41</t>
+  </si>
+  <si>
+    <t>A2ML21970</t>
+  </si>
+  <si>
+    <t>C8-D3-FF-75-E1-8B</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169:C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -3265,7 +3265,7 @@
         <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D40" t="s">
         <v>166</v>
@@ -3405,7 +3405,7 @@
         <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" t="s">
         <v>181</v>
@@ -3720,7 +3720,7 @@
         <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3962,10 +3962,10 @@
         <v>10059</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D60" t="s">
         <v>201</v>
@@ -3997,10 +3997,10 @@
         <v>10060</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D61" t="s">
         <v>205</v>
@@ -4032,10 +4032,10 @@
         <v>10061</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D62" t="s">
         <v>209</v>
@@ -4067,7 +4067,7 @@
         <v>10062</v>
       </c>
       <c r="B63" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s">
         <v>150</v>
@@ -4102,10 +4102,10 @@
         <v>10063</v>
       </c>
       <c r="B64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D64" t="s">
         <v>216</v>
@@ -4137,10 +4137,10 @@
         <v>10064</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D65" t="s">
         <v>220</v>
@@ -4172,10 +4172,10 @@
         <v>10065</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
         <v>224</v>
@@ -4207,10 +4207,10 @@
         <v>10066</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D67" t="s">
         <v>228</v>
@@ -4242,10 +4242,10 @@
         <v>10067</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D68" t="s">
         <v>232</v>
@@ -4277,10 +4277,10 @@
         <v>10068</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D69" t="s">
         <v>235</v>
@@ -4312,10 +4312,10 @@
         <v>10069</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D70" t="s">
         <v>239</v>
@@ -4347,16 +4347,16 @@
         <v>10070</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="D71" t="s">
         <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71">
         <v>1001</v>
@@ -4382,16 +4382,16 @@
         <v>10071</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
         <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F72">
         <v>1001</v>
@@ -4420,13 +4420,13 @@
         <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D73" t="s">
         <v>209</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73">
         <v>1001</v>
@@ -4455,13 +4455,13 @@
         <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
         <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F74">
         <v>1001</v>
@@ -4490,13 +4490,13 @@
         <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s">
         <v>216</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F75">
         <v>1001</v>
@@ -4525,13 +4525,13 @@
         <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
         <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F76">
         <v>1001</v>
@@ -4560,13 +4560,13 @@
         <v>241</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
         <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F77">
         <v>1001</v>
@@ -4595,13 +4595,13 @@
         <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
         <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F78">
         <v>1001</v>
@@ -4630,13 +4630,13 @@
         <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D79" t="s">
         <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F79">
         <v>1001</v>
@@ -4665,13 +4665,13 @@
         <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D80" t="s">
         <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F80">
         <v>1001</v>
@@ -4700,13 +4700,13 @@
         <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D81" t="s">
         <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F81">
         <v>1001</v>
@@ -4735,13 +4735,13 @@
         <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
         <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F82">
         <v>1001</v>
@@ -4770,13 +4770,13 @@
         <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D83" t="s">
         <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F83">
         <v>1001</v>
@@ -4805,13 +4805,13 @@
         <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
         <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F84">
         <v>1001</v>
@@ -4840,13 +4840,13 @@
         <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D85" t="s">
         <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F85">
         <v>1001</v>
@@ -4875,13 +4875,13 @@
         <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D86" t="s">
         <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F86">
         <v>1001</v>
@@ -4910,13 +4910,13 @@
         <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
         <v>220</v>
       </c>
       <c r="E87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F87">
         <v>1001</v>
@@ -4945,13 +4945,13 @@
         <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D88" t="s">
         <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F88">
         <v>1001</v>
@@ -4980,13 +4980,13 @@
         <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D89" t="s">
         <v>228</v>
       </c>
       <c r="E89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F89">
         <v>1001</v>
@@ -5015,13 +5015,13 @@
         <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D90" t="s">
         <v>232</v>
       </c>
       <c r="E90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F90">
         <v>1001</v>
@@ -5050,13 +5050,13 @@
         <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
         <v>235</v>
       </c>
       <c r="E91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F91">
         <v>1001</v>
@@ -5085,13 +5085,13 @@
         <v>241</v>
       </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D92" t="s">
         <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F92">
         <v>1001</v>
@@ -5120,13 +5120,13 @@
         <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D93" t="s">
         <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F93">
         <v>1001</v>
@@ -5155,13 +5155,13 @@
         <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D94" t="s">
         <v>205</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F94">
         <v>1001</v>
@@ -5190,13 +5190,13 @@
         <v>241</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
         <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F95">
         <v>1001</v>
@@ -5225,13 +5225,13 @@
         <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
         <v>213</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F96">
         <v>1001</v>
@@ -5260,13 +5260,13 @@
         <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
         <v>216</v>
       </c>
       <c r="E97" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F97">
         <v>1001</v>
@@ -5295,13 +5295,13 @@
         <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
         <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F98">
         <v>1001</v>
@@ -5330,13 +5330,13 @@
         <v>241</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D99" t="s">
         <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F99">
         <v>1001</v>
@@ -5377,7 +5377,7 @@
         <v>1001</v>
       </c>
       <c r="G100" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>1001</v>
       </c>
       <c r="G101" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -5435,7 +5435,7 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5447,7 +5447,7 @@
         <v>1001</v>
       </c>
       <c r="G102" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -5482,7 +5482,7 @@
         <v>1001</v>
       </c>
       <c r="G103" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>1001</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -5552,7 +5552,7 @@
         <v>1001</v>
       </c>
       <c r="G105" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>1001</v>
       </c>
       <c r="G106" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -5622,7 +5622,7 @@
         <v>1001</v>
       </c>
       <c r="G107" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
@@ -5657,7 +5657,7 @@
         <v>1001</v>
       </c>
       <c r="G108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
@@ -5692,7 +5692,7 @@
         <v>1001</v>
       </c>
       <c r="G109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H109" t="b">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>1001</v>
       </c>
       <c r="G110" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
@@ -5762,7 +5762,7 @@
         <v>1001</v>
       </c>
       <c r="G111" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>1001</v>
       </c>
       <c r="G112" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -5832,7 +5832,7 @@
         <v>1001</v>
       </c>
       <c r="G113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H113" t="b">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>1001</v>
       </c>
       <c r="G114" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>1001</v>
       </c>
       <c r="G115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
@@ -5937,7 +5937,7 @@
         <v>1001</v>
       </c>
       <c r="G116" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5972,7 +5972,7 @@
         <v>1001</v>
       </c>
       <c r="G117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>1001</v>
       </c>
       <c r="G118" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>1001</v>
       </c>
       <c r="G119" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>1001</v>
       </c>
       <c r="G120" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
@@ -6112,7 +6112,7 @@
         <v>1001</v>
       </c>
       <c r="G121" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
@@ -6147,7 +6147,7 @@
         <v>1001</v>
       </c>
       <c r="G122" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H122" t="b">
         <v>1</v>
@@ -6182,7 +6182,7 @@
         <v>1001</v>
       </c>
       <c r="G123" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H123" t="b">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>1001</v>
       </c>
       <c r="G124" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>1001</v>
       </c>
       <c r="G125" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>1001</v>
       </c>
       <c r="G126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -6322,7 +6322,7 @@
         <v>1001</v>
       </c>
       <c r="G127" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>1001</v>
       </c>
       <c r="G128" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
@@ -6392,7 +6392,7 @@
         <v>1001</v>
       </c>
       <c r="G129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
@@ -6427,7 +6427,7 @@
         <v>1001</v>
       </c>
       <c r="G130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
@@ -6462,7 +6462,7 @@
         <v>1001</v>
       </c>
       <c r="G131" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>1001</v>
       </c>
       <c r="G132" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>1001</v>
       </c>
       <c r="G133" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>1001</v>
       </c>
       <c r="G134" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>1001</v>
       </c>
       <c r="G135" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -6637,7 +6637,7 @@
         <v>1001</v>
       </c>
       <c r="G136" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>1001</v>
       </c>
       <c r="G137" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H137" t="b">
         <v>1</v>
@@ -6695,7 +6695,7 @@
         <v>165</v>
       </c>
       <c r="C138" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D138" t="s">
         <v>166</v>
@@ -6707,7 +6707,7 @@
         <v>1001</v>
       </c>
       <c r="G138" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
@@ -6742,7 +6742,7 @@
         <v>1001</v>
       </c>
       <c r="G139" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H139" t="b">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>1001</v>
       </c>
       <c r="G140" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6812,7 +6812,7 @@
         <v>1001</v>
       </c>
       <c r="G141" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H141" t="b">
         <v>1</v>
@@ -6835,7 +6835,7 @@
         <v>180</v>
       </c>
       <c r="C142" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D142" t="s">
         <v>181</v>
@@ -6847,7 +6847,7 @@
         <v>1001</v>
       </c>
       <c r="G142" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>1001</v>
       </c>
       <c r="G143" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
@@ -6917,7 +6917,7 @@
         <v>1001</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>1001</v>
       </c>
       <c r="G145" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H145" t="b">
         <v>1</v>
@@ -6987,7 +6987,7 @@
         <v>1001</v>
       </c>
       <c r="G146" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>1001</v>
       </c>
       <c r="G147" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
@@ -7057,7 +7057,7 @@
         <v>1001</v>
       </c>
       <c r="G148" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>1001</v>
       </c>
       <c r="G149" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H149" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>1001</v>
       </c>
       <c r="G150" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H150" t="b">
         <v>1</v>
@@ -7150,7 +7150,7 @@
         <v>215</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D151" t="s">
         <v>216</v>
@@ -7162,7 +7162,7 @@
         <v>1001</v>
       </c>
       <c r="G151" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H151" t="b">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>1001</v>
       </c>
       <c r="G152" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>1001</v>
       </c>
       <c r="G153" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
@@ -7267,7 +7267,7 @@
         <v>1001</v>
       </c>
       <c r="G154" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H154" t="b">
         <v>1</v>
@@ -7302,7 +7302,7 @@
         <v>1001</v>
       </c>
       <c r="G155" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -7337,7 +7337,7 @@
         <v>1001</v>
       </c>
       <c r="G156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -7372,7 +7372,7 @@
         <v>1001</v>
       </c>
       <c r="G157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -7392,10 +7392,10 @@
         <v>10059</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D158" t="s">
         <v>201</v>
@@ -7407,7 +7407,7 @@
         <v>1001</v>
       </c>
       <c r="G158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
@@ -7427,10 +7427,10 @@
         <v>10060</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D159" t="s">
         <v>205</v>
@@ -7442,7 +7442,7 @@
         <v>1001</v>
       </c>
       <c r="G159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -7462,10 +7462,10 @@
         <v>10061</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D160" t="s">
         <v>209</v>
@@ -7477,7 +7477,7 @@
         <v>1001</v>
       </c>
       <c r="G160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
@@ -7497,7 +7497,7 @@
         <v>10062</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
         <v>150</v>
@@ -7512,7 +7512,7 @@
         <v>1001</v>
       </c>
       <c r="G161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -7532,10 +7532,10 @@
         <v>10063</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D162" t="s">
         <v>216</v>
@@ -7547,7 +7547,7 @@
         <v>1001</v>
       </c>
       <c r="G162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H162" t="b">
         <v>1</v>
@@ -7567,10 +7567,10 @@
         <v>10064</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D163" t="s">
         <v>220</v>
@@ -7582,7 +7582,7 @@
         <v>1001</v>
       </c>
       <c r="G163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
@@ -7602,10 +7602,10 @@
         <v>10065</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C164" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D164" t="s">
         <v>224</v>
@@ -7617,7 +7617,7 @@
         <v>1001</v>
       </c>
       <c r="G164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H164" t="b">
         <v>1</v>
@@ -7637,10 +7637,10 @@
         <v>10066</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D165" t="s">
         <v>228</v>
@@ -7652,7 +7652,7 @@
         <v>1001</v>
       </c>
       <c r="G165" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H165" t="b">
         <v>1</v>
@@ -7672,10 +7672,10 @@
         <v>10067</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D166" t="s">
         <v>232</v>
@@ -7687,7 +7687,7 @@
         <v>1001</v>
       </c>
       <c r="G166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
@@ -7707,10 +7707,10 @@
         <v>10068</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D167" t="s">
         <v>235</v>
@@ -7722,7 +7722,7 @@
         <v>1001</v>
       </c>
       <c r="G167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
@@ -7742,10 +7742,10 @@
         <v>10069</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D168" t="s">
         <v>239</v>
@@ -7757,7 +7757,7 @@
         <v>1001</v>
       </c>
       <c r="G168" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -7777,22 +7777,22 @@
         <v>10070</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="D169" t="s">
         <v>201</v>
       </c>
       <c r="E169" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F169">
         <v>1001</v>
       </c>
       <c r="G169" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
@@ -7812,22 +7812,22 @@
         <v>10071</v>
       </c>
       <c r="B170" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="C170" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="D170" t="s">
         <v>205</v>
       </c>
       <c r="E170" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F170">
         <v>1001</v>
       </c>
       <c r="G170" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7850,19 +7850,19 @@
         <v>241</v>
       </c>
       <c r="C171" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D171" t="s">
         <v>209</v>
       </c>
       <c r="E171" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F171">
         <v>1001</v>
       </c>
       <c r="G171" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7885,19 +7885,19 @@
         <v>241</v>
       </c>
       <c r="C172" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D172" t="s">
         <v>213</v>
       </c>
       <c r="E172" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F172">
         <v>1001</v>
       </c>
       <c r="G172" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H172" t="b">
         <v>1</v>
@@ -7920,19 +7920,19 @@
         <v>241</v>
       </c>
       <c r="C173" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D173" t="s">
         <v>216</v>
       </c>
       <c r="E173" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F173">
         <v>1001</v>
       </c>
       <c r="G173" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -7955,19 +7955,19 @@
         <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D174" t="s">
         <v>220</v>
       </c>
       <c r="E174" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F174">
         <v>1001</v>
       </c>
       <c r="G174" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
@@ -7990,19 +7990,19 @@
         <v>241</v>
       </c>
       <c r="C175" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D175" t="s">
         <v>224</v>
       </c>
       <c r="E175" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F175">
         <v>1001</v>
       </c>
       <c r="G175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H175" t="b">
         <v>1</v>
@@ -8025,19 +8025,19 @@
         <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D176" t="s">
         <v>228</v>
       </c>
       <c r="E176" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F176">
         <v>1001</v>
       </c>
       <c r="G176" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H176" t="b">
         <v>1</v>
@@ -8060,19 +8060,19 @@
         <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D177" t="s">
         <v>232</v>
       </c>
       <c r="E177" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F177">
         <v>1001</v>
       </c>
       <c r="G177" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
@@ -8095,19 +8095,19 @@
         <v>241</v>
       </c>
       <c r="C178" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D178" t="s">
         <v>235</v>
       </c>
       <c r="E178" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F178">
         <v>1001</v>
       </c>
       <c r="G178" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H178" t="b">
         <v>1</v>
@@ -8130,19 +8130,19 @@
         <v>241</v>
       </c>
       <c r="C179" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D179" t="s">
         <v>239</v>
       </c>
       <c r="E179" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F179">
         <v>1001</v>
       </c>
       <c r="G179" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H179" t="b">
         <v>1</v>
@@ -8165,19 +8165,19 @@
         <v>241</v>
       </c>
       <c r="C180" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D180" t="s">
         <v>201</v>
       </c>
       <c r="E180" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F180">
         <v>1001</v>
       </c>
       <c r="G180" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -8200,19 +8200,19 @@
         <v>241</v>
       </c>
       <c r="C181" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D181" t="s">
         <v>205</v>
       </c>
       <c r="E181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F181">
         <v>1001</v>
       </c>
       <c r="G181" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -8235,19 +8235,19 @@
         <v>241</v>
       </c>
       <c r="C182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D182" t="s">
         <v>209</v>
       </c>
       <c r="E182" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F182">
         <v>1001</v>
       </c>
       <c r="G182" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H182" t="b">
         <v>1</v>
@@ -8270,19 +8270,19 @@
         <v>241</v>
       </c>
       <c r="C183" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D183" t="s">
         <v>213</v>
       </c>
       <c r="E183" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F183">
         <v>1001</v>
       </c>
       <c r="G183" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H183" t="b">
         <v>1</v>
@@ -8305,19 +8305,19 @@
         <v>241</v>
       </c>
       <c r="C184" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D184" t="s">
         <v>216</v>
       </c>
       <c r="E184" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F184">
         <v>1001</v>
       </c>
       <c r="G184" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H184" t="b">
         <v>1</v>
@@ -8340,19 +8340,19 @@
         <v>241</v>
       </c>
       <c r="C185" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D185" t="s">
         <v>220</v>
       </c>
       <c r="E185" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F185">
         <v>1001</v>
       </c>
       <c r="G185" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H185" t="b">
         <v>1</v>
@@ -8375,19 +8375,19 @@
         <v>241</v>
       </c>
       <c r="C186" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D186" t="s">
         <v>224</v>
       </c>
       <c r="E186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F186">
         <v>1001</v>
       </c>
       <c r="G186" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H186" t="b">
         <v>1</v>
@@ -8410,19 +8410,19 @@
         <v>241</v>
       </c>
       <c r="C187" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D187" t="s">
         <v>228</v>
       </c>
       <c r="E187" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F187">
         <v>1001</v>
       </c>
       <c r="G187" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H187" t="b">
         <v>1</v>
@@ -8445,19 +8445,19 @@
         <v>241</v>
       </c>
       <c r="C188" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D188" t="s">
         <v>232</v>
       </c>
       <c r="E188" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F188">
         <v>1001</v>
       </c>
       <c r="G188" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
@@ -8480,19 +8480,19 @@
         <v>241</v>
       </c>
       <c r="C189" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D189" t="s">
         <v>235</v>
       </c>
       <c r="E189" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F189">
         <v>1001</v>
       </c>
       <c r="G189" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -8515,19 +8515,19 @@
         <v>241</v>
       </c>
       <c r="C190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D190" t="s">
         <v>239</v>
       </c>
       <c r="E190" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F190">
         <v>1001</v>
       </c>
       <c r="G190" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
@@ -8550,19 +8550,19 @@
         <v>241</v>
       </c>
       <c r="C191" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D191" t="s">
         <v>201</v>
       </c>
       <c r="E191" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F191">
         <v>1001</v>
       </c>
       <c r="G191" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
@@ -8585,19 +8585,19 @@
         <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D192" t="s">
         <v>205</v>
       </c>
       <c r="E192" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F192">
         <v>1001</v>
       </c>
       <c r="G192" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H192" t="b">
         <v>1</v>
@@ -8620,19 +8620,19 @@
         <v>241</v>
       </c>
       <c r="C193" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D193" t="s">
         <v>209</v>
       </c>
       <c r="E193" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F193">
         <v>1001</v>
       </c>
       <c r="G193" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8655,19 +8655,19 @@
         <v>241</v>
       </c>
       <c r="C194" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D194" t="s">
         <v>213</v>
       </c>
       <c r="E194" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F194">
         <v>1001</v>
       </c>
       <c r="G194" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H194" t="b">
         <v>1</v>
@@ -8690,19 +8690,19 @@
         <v>241</v>
       </c>
       <c r="C195" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D195" t="s">
         <v>216</v>
       </c>
       <c r="E195" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F195">
         <v>1001</v>
       </c>
       <c r="G195" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H195" t="b">
         <v>1</v>
@@ -8725,19 +8725,19 @@
         <v>241</v>
       </c>
       <c r="C196" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D196" t="s">
         <v>220</v>
       </c>
       <c r="E196" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F196">
         <v>1001</v>
       </c>
       <c r="G196" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -8760,19 +8760,19 @@
         <v>241</v>
       </c>
       <c r="C197" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D197" t="s">
         <v>224</v>
       </c>
       <c r="E197" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F197">
         <v>1001</v>
       </c>
       <c r="G197" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>1001</v>
       </c>
       <c r="G198" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>1001</v>
       </c>
       <c r="G199" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H199" t="b">
         <v>1</v>
@@ -8865,7 +8865,7 @@
         <v>22</v>
       </c>
       <c r="C200" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D200" t="s">
         <v>23</v>
@@ -8877,7 +8877,7 @@
         <v>1001</v>
       </c>
       <c r="G200" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H200" t="b">
         <v>1</v>
@@ -8912,7 +8912,7 @@
         <v>1001</v>
       </c>
       <c r="G201" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -8947,7 +8947,7 @@
         <v>1001</v>
       </c>
       <c r="G202" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H202" t="b">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>1001</v>
       </c>
       <c r="G203" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H203" t="b">
         <v>1</v>
@@ -9017,7 +9017,7 @@
         <v>1001</v>
       </c>
       <c r="G204" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H204" t="b">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>1001</v>
       </c>
       <c r="G205" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -9087,7 +9087,7 @@
         <v>1001</v>
       </c>
       <c r="G206" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H206" t="b">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>1001</v>
       </c>
       <c r="G207" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>1001</v>
       </c>
       <c r="G208" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -9192,7 +9192,7 @@
         <v>1001</v>
       </c>
       <c r="G209" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H209" t="b">
         <v>1</v>
@@ -9227,7 +9227,7 @@
         <v>1001</v>
       </c>
       <c r="G210" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
@@ -9262,7 +9262,7 @@
         <v>1001</v>
       </c>
       <c r="G211" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -9297,7 +9297,7 @@
         <v>1001</v>
       </c>
       <c r="G212" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H212" t="b">
         <v>1</v>
@@ -9332,7 +9332,7 @@
         <v>1001</v>
       </c>
       <c r="G213" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H213" t="b">
         <v>1</v>
@@ -9367,7 +9367,7 @@
         <v>1001</v>
       </c>
       <c r="G214" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H214" t="b">
         <v>1</v>
@@ -9402,7 +9402,7 @@
         <v>1001</v>
       </c>
       <c r="G215" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H215" t="b">
         <v>1</v>
@@ -9437,7 +9437,7 @@
         <v>1001</v>
       </c>
       <c r="G216" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H216" t="b">
         <v>1</v>
@@ -9472,7 +9472,7 @@
         <v>1001</v>
       </c>
       <c r="G217" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>1001</v>
       </c>
       <c r="G218" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
@@ -9542,7 +9542,7 @@
         <v>1001</v>
       </c>
       <c r="G219" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H219" t="b">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>1001</v>
       </c>
       <c r="G220" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H220" t="b">
         <v>1</v>
@@ -9612,7 +9612,7 @@
         <v>1001</v>
       </c>
       <c r="G221" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>1001</v>
       </c>
       <c r="G222" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H222" t="b">
         <v>1</v>
@@ -9682,7 +9682,7 @@
         <v>1001</v>
       </c>
       <c r="G223" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -9717,7 +9717,7 @@
         <v>1001</v>
       </c>
       <c r="G224" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H224" t="b">
         <v>1</v>
@@ -9752,7 +9752,7 @@
         <v>1001</v>
       </c>
       <c r="G225" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H225" t="b">
         <v>1</v>
@@ -9787,7 +9787,7 @@
         <v>1001</v>
       </c>
       <c r="G226" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H226" t="b">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>1001</v>
       </c>
       <c r="G227" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H227" t="b">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>1001</v>
       </c>
       <c r="G228" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -9892,7 +9892,7 @@
         <v>1001</v>
       </c>
       <c r="G229" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H229" t="b">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>1001</v>
       </c>
       <c r="G230" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -9962,7 +9962,7 @@
         <v>1001</v>
       </c>
       <c r="G231" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>1001</v>
       </c>
       <c r="G232" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H232" t="b">
         <v>1</v>
@@ -10032,7 +10032,7 @@
         <v>1001</v>
       </c>
       <c r="G233" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H233" t="b">
         <v>1</v>
@@ -10067,7 +10067,7 @@
         <v>1001</v>
       </c>
       <c r="G234" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -10102,7 +10102,7 @@
         <v>1001</v>
       </c>
       <c r="G235" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H235" t="b">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         <v>165</v>
       </c>
       <c r="C236" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D236" t="s">
         <v>166</v>
@@ -10137,7 +10137,7 @@
         <v>1001</v>
       </c>
       <c r="G236" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H236" t="b">
         <v>1</v>
@@ -10172,7 +10172,7 @@
         <v>1001</v>
       </c>
       <c r="G237" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H237" t="b">
         <v>1</v>
@@ -10207,7 +10207,7 @@
         <v>1001</v>
       </c>
       <c r="G238" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10242,7 +10242,7 @@
         <v>1001</v>
       </c>
       <c r="G239" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>180</v>
       </c>
       <c r="C240" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D240" t="s">
         <v>181</v>
@@ -10277,7 +10277,7 @@
         <v>1001</v>
       </c>
       <c r="G240" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H240" t="b">
         <v>1</v>
@@ -10312,7 +10312,7 @@
         <v>1001</v>
       </c>
       <c r="G241" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H241" t="b">
         <v>1</v>
@@ -10347,7 +10347,7 @@
         <v>1001</v>
       </c>
       <c r="G242" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H242" t="b">
         <v>1</v>
@@ -10382,7 +10382,7 @@
         <v>1001</v>
       </c>
       <c r="G243" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H243" t="b">
         <v>1</v>
@@ -10417,7 +10417,7 @@
         <v>1001</v>
       </c>
       <c r="G244" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H244" t="b">
         <v>1</v>
@@ -10452,7 +10452,7 @@
         <v>1001</v>
       </c>
       <c r="G245" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -10487,7 +10487,7 @@
         <v>1001</v>
       </c>
       <c r="G246" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H246" t="b">
         <v>1</v>
@@ -10522,7 +10522,7 @@
         <v>1001</v>
       </c>
       <c r="G247" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         <v>1001</v>
       </c>
       <c r="G248" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H248" t="b">
         <v>1</v>
@@ -10580,7 +10580,7 @@
         <v>215</v>
       </c>
       <c r="C249" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D249" t="s">
         <v>216</v>
@@ -10592,7 +10592,7 @@
         <v>1001</v>
       </c>
       <c r="G249" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H249" t="b">
         <v>1</v>
@@ -10627,7 +10627,7 @@
         <v>1001</v>
       </c>
       <c r="G250" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H250" t="b">
         <v>1</v>
@@ -10662,7 +10662,7 @@
         <v>1001</v>
       </c>
       <c r="G251" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H251" t="b">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>1001</v>
       </c>
       <c r="G252" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -10732,7 +10732,7 @@
         <v>1001</v>
       </c>
       <c r="G253" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H253" t="b">
         <v>1</v>
@@ -10767,7 +10767,7 @@
         <v>1001</v>
       </c>
       <c r="G254" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H254" t="b">
         <v>1</v>
@@ -10802,7 +10802,7 @@
         <v>1001</v>
       </c>
       <c r="G255" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H255" t="b">
         <v>1</v>
@@ -10822,10 +10822,10 @@
         <v>10059</v>
       </c>
       <c r="B256" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C256" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D256" t="s">
         <v>201</v>
@@ -10837,7 +10837,7 @@
         <v>1001</v>
       </c>
       <c r="G256" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H256" t="b">
         <v>1</v>
@@ -10857,10 +10857,10 @@
         <v>10060</v>
       </c>
       <c r="B257" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C257" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D257" t="s">
         <v>205</v>
@@ -10872,7 +10872,7 @@
         <v>1001</v>
       </c>
       <c r="G257" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H257" t="b">
         <v>1</v>
@@ -10892,10 +10892,10 @@
         <v>10061</v>
       </c>
       <c r="B258" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C258" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D258" t="s">
         <v>209</v>
@@ -10907,7 +10907,7 @@
         <v>1001</v>
       </c>
       <c r="G258" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H258" t="b">
         <v>1</v>
@@ -10927,7 +10927,7 @@
         <v>10062</v>
       </c>
       <c r="B259" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C259" t="s">
         <v>150</v>
@@ -10942,7 +10942,7 @@
         <v>1001</v>
       </c>
       <c r="G259" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H259" t="b">
         <v>1</v>
@@ -10962,10 +10962,10 @@
         <v>10063</v>
       </c>
       <c r="B260" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C260" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D260" t="s">
         <v>216</v>
@@ -10977,7 +10977,7 @@
         <v>1001</v>
       </c>
       <c r="G260" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H260" t="b">
         <v>1</v>
@@ -10997,10 +10997,10 @@
         <v>10064</v>
       </c>
       <c r="B261" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C261" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D261" t="s">
         <v>220</v>
@@ -11012,7 +11012,7 @@
         <v>1001</v>
       </c>
       <c r="G261" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H261" t="b">
         <v>1</v>
@@ -11032,10 +11032,10 @@
         <v>10065</v>
       </c>
       <c r="B262" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C262" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D262" t="s">
         <v>224</v>
@@ -11047,7 +11047,7 @@
         <v>1001</v>
       </c>
       <c r="G262" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H262" t="b">
         <v>1</v>
@@ -11067,10 +11067,10 @@
         <v>10066</v>
       </c>
       <c r="B263" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C263" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D263" t="s">
         <v>228</v>
@@ -11082,7 +11082,7 @@
         <v>1001</v>
       </c>
       <c r="G263" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H263" t="b">
         <v>1</v>
@@ -11102,10 +11102,10 @@
         <v>10067</v>
       </c>
       <c r="B264" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C264" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D264" t="s">
         <v>232</v>
@@ -11117,7 +11117,7 @@
         <v>1001</v>
       </c>
       <c r="G264" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H264" t="b">
         <v>1</v>
@@ -11137,10 +11137,10 @@
         <v>10068</v>
       </c>
       <c r="B265" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C265" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D265" t="s">
         <v>235</v>
@@ -11152,7 +11152,7 @@
         <v>1001</v>
       </c>
       <c r="G265" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H265" t="b">
         <v>1</v>
@@ -11172,10 +11172,10 @@
         <v>10069</v>
       </c>
       <c r="B266" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C266" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D266" t="s">
         <v>239</v>
@@ -11187,7 +11187,7 @@
         <v>1001</v>
       </c>
       <c r="G266" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H266" t="b">
         <v>1</v>
@@ -11207,22 +11207,22 @@
         <v>10070</v>
       </c>
       <c r="B267" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C267" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D267" t="s">
         <v>201</v>
       </c>
       <c r="E267" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F267">
         <v>1001</v>
       </c>
       <c r="G267" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H267" t="b">
         <v>1</v>
@@ -11242,22 +11242,22 @@
         <v>10071</v>
       </c>
       <c r="B268" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="C268" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="D268" t="s">
         <v>205</v>
       </c>
       <c r="E268" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F268">
         <v>1001</v>
       </c>
       <c r="G268" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H268" t="b">
         <v>1</v>
@@ -11280,19 +11280,19 @@
         <v>241</v>
       </c>
       <c r="C269" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D269" t="s">
         <v>209</v>
       </c>
       <c r="E269" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F269">
         <v>1001</v>
       </c>
       <c r="G269" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H269" t="b">
         <v>1</v>
@@ -11315,19 +11315,19 @@
         <v>241</v>
       </c>
       <c r="C270" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D270" t="s">
         <v>213</v>
       </c>
       <c r="E270" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F270">
         <v>1001</v>
       </c>
       <c r="G270" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H270" t="b">
         <v>1</v>
@@ -11350,19 +11350,19 @@
         <v>241</v>
       </c>
       <c r="C271" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D271" t="s">
         <v>216</v>
       </c>
       <c r="E271" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F271">
         <v>1001</v>
       </c>
       <c r="G271" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H271" t="b">
         <v>1</v>
@@ -11385,19 +11385,19 @@
         <v>241</v>
       </c>
       <c r="C272" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D272" t="s">
         <v>220</v>
       </c>
       <c r="E272" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F272">
         <v>1001</v>
       </c>
       <c r="G272" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H272" t="b">
         <v>1</v>
@@ -11420,19 +11420,19 @@
         <v>241</v>
       </c>
       <c r="C273" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D273" t="s">
         <v>224</v>
       </c>
       <c r="E273" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F273">
         <v>1001</v>
       </c>
       <c r="G273" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H273" t="b">
         <v>1</v>
@@ -11455,19 +11455,19 @@
         <v>241</v>
       </c>
       <c r="C274" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D274" t="s">
         <v>228</v>
       </c>
       <c r="E274" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F274">
         <v>1001</v>
       </c>
       <c r="G274" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H274" t="b">
         <v>1</v>
@@ -11490,19 +11490,19 @@
         <v>241</v>
       </c>
       <c r="C275" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D275" t="s">
         <v>232</v>
       </c>
       <c r="E275" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F275">
         <v>1001</v>
       </c>
       <c r="G275" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H275" t="b">
         <v>1</v>
@@ -11525,19 +11525,19 @@
         <v>241</v>
       </c>
       <c r="C276" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D276" t="s">
         <v>235</v>
       </c>
       <c r="E276" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F276">
         <v>1001</v>
       </c>
       <c r="G276" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H276" t="b">
         <v>1</v>
@@ -11560,19 +11560,19 @@
         <v>241</v>
       </c>
       <c r="C277" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D277" t="s">
         <v>239</v>
       </c>
       <c r="E277" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F277">
         <v>1001</v>
       </c>
       <c r="G277" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H277" t="b">
         <v>1</v>
@@ -11595,19 +11595,19 @@
         <v>241</v>
       </c>
       <c r="C278" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D278" t="s">
         <v>201</v>
       </c>
       <c r="E278" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F278">
         <v>1001</v>
       </c>
       <c r="G278" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H278" t="b">
         <v>1</v>
@@ -11630,19 +11630,19 @@
         <v>241</v>
       </c>
       <c r="C279" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D279" t="s">
         <v>205</v>
       </c>
       <c r="E279" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F279">
         <v>1001</v>
       </c>
       <c r="G279" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H279" t="b">
         <v>1</v>
@@ -11665,19 +11665,19 @@
         <v>241</v>
       </c>
       <c r="C280" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D280" t="s">
         <v>209</v>
       </c>
       <c r="E280" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F280">
         <v>1001</v>
       </c>
       <c r="G280" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H280" t="b">
         <v>1</v>
@@ -11700,19 +11700,19 @@
         <v>241</v>
       </c>
       <c r="C281" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D281" t="s">
         <v>213</v>
       </c>
       <c r="E281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F281">
         <v>1001</v>
       </c>
       <c r="G281" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H281" t="b">
         <v>1</v>
@@ -11735,19 +11735,19 @@
         <v>241</v>
       </c>
       <c r="C282" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D282" t="s">
         <v>216</v>
       </c>
       <c r="E282" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F282">
         <v>1001</v>
       </c>
       <c r="G282" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H282" t="b">
         <v>1</v>
@@ -11770,19 +11770,19 @@
         <v>241</v>
       </c>
       <c r="C283" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D283" t="s">
         <v>220</v>
       </c>
       <c r="E283" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F283">
         <v>1001</v>
       </c>
       <c r="G283" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H283" t="b">
         <v>1</v>
@@ -11805,19 +11805,19 @@
         <v>241</v>
       </c>
       <c r="C284" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D284" t="s">
         <v>224</v>
       </c>
       <c r="E284" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F284">
         <v>1001</v>
       </c>
       <c r="G284" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H284" t="b">
         <v>1</v>
@@ -11840,19 +11840,19 @@
         <v>241</v>
       </c>
       <c r="C285" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D285" t="s">
         <v>228</v>
       </c>
       <c r="E285" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F285">
         <v>1001</v>
       </c>
       <c r="G285" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H285" t="b">
         <v>1</v>
@@ -11875,19 +11875,19 @@
         <v>241</v>
       </c>
       <c r="C286" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D286" t="s">
         <v>232</v>
       </c>
       <c r="E286" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F286">
         <v>1001</v>
       </c>
       <c r="G286" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H286" t="b">
         <v>1</v>
@@ -11910,19 +11910,19 @@
         <v>241</v>
       </c>
       <c r="C287" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D287" t="s">
         <v>235</v>
       </c>
       <c r="E287" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F287">
         <v>1001</v>
       </c>
       <c r="G287" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H287" t="b">
         <v>1</v>
@@ -11945,19 +11945,19 @@
         <v>241</v>
       </c>
       <c r="C288" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D288" t="s">
         <v>239</v>
       </c>
       <c r="E288" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F288">
         <v>1001</v>
       </c>
       <c r="G288" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H288" t="b">
         <v>1</v>
@@ -11980,19 +11980,19 @@
         <v>241</v>
       </c>
       <c r="C289" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D289" t="s">
         <v>201</v>
       </c>
       <c r="E289" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F289">
         <v>1001</v>
       </c>
       <c r="G289" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H289" t="b">
         <v>1</v>
@@ -12015,19 +12015,19 @@
         <v>241</v>
       </c>
       <c r="C290" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D290" t="s">
         <v>205</v>
       </c>
       <c r="E290" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F290">
         <v>1001</v>
       </c>
       <c r="G290" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H290" t="b">
         <v>1</v>
@@ -12050,19 +12050,19 @@
         <v>241</v>
       </c>
       <c r="C291" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D291" t="s">
         <v>209</v>
       </c>
       <c r="E291" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F291">
         <v>1001</v>
       </c>
       <c r="G291" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H291" t="b">
         <v>1</v>
@@ -12085,19 +12085,19 @@
         <v>241</v>
       </c>
       <c r="C292" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D292" t="s">
         <v>213</v>
       </c>
       <c r="E292" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F292">
         <v>1001</v>
       </c>
       <c r="G292" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H292" t="b">
         <v>1</v>
@@ -12120,19 +12120,19 @@
         <v>241</v>
       </c>
       <c r="C293" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D293" t="s">
         <v>216</v>
       </c>
       <c r="E293" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F293">
         <v>1001</v>
       </c>
       <c r="G293" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H293" t="b">
         <v>1</v>
@@ -12155,19 +12155,19 @@
         <v>241</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D294" t="s">
         <v>220</v>
       </c>
       <c r="E294" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F294">
         <v>1001</v>
       </c>
       <c r="G294" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H294" t="b">
         <v>1</v>
@@ -12190,19 +12190,19 @@
         <v>241</v>
       </c>
       <c r="C295" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D295" t="s">
         <v>224</v>
       </c>
       <c r="E295" t="s">
+        <v>308</v>
+      </c>
+      <c r="F295">
+        <v>1001</v>
+      </c>
+      <c r="G295" t="s">
         <v>310</v>
-      </c>
-      <c r="F295">
-        <v>1001</v>
-      </c>
-      <c r="G295" t="s">
-        <v>312</v>
       </c>
       <c r="H295" t="b">
         <v>1</v>

--- a/_files/requirements/master_data/master-machine_master_h.xlsx
+++ b/_files/requirements/master_data/master-machine_master_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E166D662-A705-4DF5-ABAB-30DD6774B2F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{444D36A3-C91E-4D1F-A5B0-ADEB89242F50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,9 +1045,6 @@
     <t>techno-236</t>
   </si>
   <si>
-    <t>54-BF-64-4C-8F-7D</t>
-  </si>
-  <si>
     <t>Techno-251</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
   </si>
   <si>
     <t>3C-2C-30-C8-30-57</t>
+  </si>
+  <si>
+    <t>3C-2C-30-B4-00-C0</t>
   </si>
 </sst>
 </file>
@@ -4783,7 +4783,7 @@
         <v>340</v>
       </c>
       <c r="C75" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D75" t="s">
         <v>216</v>
@@ -4818,10 +4818,10 @@
         <v>10075</v>
       </c>
       <c r="B76" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" t="s">
         <v>342</v>
-      </c>
-      <c r="C76" t="s">
-        <v>343</v>
       </c>
       <c r="D76" t="s">
         <v>220</v>
@@ -4856,10 +4856,10 @@
         <v>10076</v>
       </c>
       <c r="B77" t="s">
+        <v>343</v>
+      </c>
+      <c r="C77" t="s">
         <v>344</v>
-      </c>
-      <c r="C77" t="s">
-        <v>345</v>
       </c>
       <c r="D77" t="s">
         <v>224</v>
@@ -4894,10 +4894,10 @@
         <v>10077</v>
       </c>
       <c r="B78" t="s">
+        <v>345</v>
+      </c>
+      <c r="C78" t="s">
         <v>346</v>
-      </c>
-      <c r="C78" t="s">
-        <v>347</v>
       </c>
       <c r="D78" t="s">
         <v>228</v>
@@ -4932,10 +4932,10 @@
         <v>10078</v>
       </c>
       <c r="B79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" t="s">
         <v>348</v>
-      </c>
-      <c r="C79" t="s">
-        <v>349</v>
       </c>
       <c r="D79" t="s">
         <v>232</v>
@@ -4970,10 +4970,10 @@
         <v>10079</v>
       </c>
       <c r="B80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" t="s">
         <v>350</v>
-      </c>
-      <c r="C80" t="s">
-        <v>351</v>
       </c>
       <c r="D80" t="s">
         <v>235</v>
@@ -5008,10 +5008,10 @@
         <v>10080</v>
       </c>
       <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" t="s">
         <v>352</v>
-      </c>
-      <c r="C81" t="s">
-        <v>353</v>
       </c>
       <c r="D81" t="s">
         <v>239</v>
@@ -5046,10 +5046,10 @@
         <v>10081</v>
       </c>
       <c r="B82" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" t="s">
         <v>354</v>
-      </c>
-      <c r="C82" t="s">
-        <v>355</v>
       </c>
       <c r="D82" t="s">
         <v>201</v>
@@ -5084,10 +5084,10 @@
         <v>10082</v>
       </c>
       <c r="B83" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" t="s">
         <v>356</v>
-      </c>
-      <c r="C83" t="s">
-        <v>357</v>
       </c>
       <c r="D83" t="s">
         <v>205</v>
@@ -5122,10 +5122,10 @@
         <v>10083</v>
       </c>
       <c r="B84" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" t="s">
         <v>358</v>
-      </c>
-      <c r="C84" t="s">
-        <v>359</v>
       </c>
       <c r="D84" t="s">
         <v>209</v>
@@ -8507,7 +8507,7 @@
         <v>340</v>
       </c>
       <c r="C173" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
         <v>216</v>
@@ -8542,10 +8542,10 @@
         <v>10075</v>
       </c>
       <c r="B174" t="s">
+        <v>341</v>
+      </c>
+      <c r="C174" t="s">
         <v>342</v>
-      </c>
-      <c r="C174" t="s">
-        <v>343</v>
       </c>
       <c r="D174" t="s">
         <v>220</v>
@@ -8580,10 +8580,10 @@
         <v>10076</v>
       </c>
       <c r="B175" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" t="s">
         <v>344</v>
-      </c>
-      <c r="C175" t="s">
-        <v>345</v>
       </c>
       <c r="D175" t="s">
         <v>224</v>
@@ -8618,10 +8618,10 @@
         <v>10077</v>
       </c>
       <c r="B176" t="s">
+        <v>345</v>
+      </c>
+      <c r="C176" t="s">
         <v>346</v>
-      </c>
-      <c r="C176" t="s">
-        <v>347</v>
       </c>
       <c r="D176" t="s">
         <v>228</v>
@@ -8656,10 +8656,10 @@
         <v>10078</v>
       </c>
       <c r="B177" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" t="s">
         <v>348</v>
-      </c>
-      <c r="C177" t="s">
-        <v>349</v>
       </c>
       <c r="D177" t="s">
         <v>232</v>
@@ -8694,10 +8694,10 @@
         <v>10079</v>
       </c>
       <c r="B178" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" t="s">
         <v>350</v>
-      </c>
-      <c r="C178" t="s">
-        <v>351</v>
       </c>
       <c r="D178" t="s">
         <v>235</v>
@@ -8732,10 +8732,10 @@
         <v>10080</v>
       </c>
       <c r="B179" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" t="s">
         <v>352</v>
-      </c>
-      <c r="C179" t="s">
-        <v>353</v>
       </c>
       <c r="D179" t="s">
         <v>239</v>
@@ -8770,10 +8770,10 @@
         <v>10081</v>
       </c>
       <c r="B180" t="s">
+        <v>353</v>
+      </c>
+      <c r="C180" t="s">
         <v>354</v>
-      </c>
-      <c r="C180" t="s">
-        <v>355</v>
       </c>
       <c r="D180" t="s">
         <v>201</v>
@@ -8808,10 +8808,10 @@
         <v>10082</v>
       </c>
       <c r="B181" t="s">
+        <v>355</v>
+      </c>
+      <c r="C181" t="s">
         <v>356</v>
-      </c>
-      <c r="C181" t="s">
-        <v>357</v>
       </c>
       <c r="D181" t="s">
         <v>205</v>
@@ -8846,10 +8846,10 @@
         <v>10083</v>
       </c>
       <c r="B182" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" t="s">
         <v>358</v>
-      </c>
-      <c r="C182" t="s">
-        <v>359</v>
       </c>
       <c r="D182" t="s">
         <v>209</v>
@@ -12231,7 +12231,7 @@
         <v>340</v>
       </c>
       <c r="C271" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D271" t="s">
         <v>216</v>
@@ -12266,10 +12266,10 @@
         <v>10075</v>
       </c>
       <c r="B272" t="s">
+        <v>341</v>
+      </c>
+      <c r="C272" t="s">
         <v>342</v>
-      </c>
-      <c r="C272" t="s">
-        <v>343</v>
       </c>
       <c r="D272" t="s">
         <v>220</v>
@@ -12304,10 +12304,10 @@
         <v>10076</v>
       </c>
       <c r="B273" t="s">
+        <v>343</v>
+      </c>
+      <c r="C273" t="s">
         <v>344</v>
-      </c>
-      <c r="C273" t="s">
-        <v>345</v>
       </c>
       <c r="D273" t="s">
         <v>224</v>
@@ -12342,10 +12342,10 @@
         <v>10077</v>
       </c>
       <c r="B274" t="s">
+        <v>345</v>
+      </c>
+      <c r="C274" t="s">
         <v>346</v>
-      </c>
-      <c r="C274" t="s">
-        <v>347</v>
       </c>
       <c r="D274" t="s">
         <v>228</v>
@@ -12380,10 +12380,10 @@
         <v>10078</v>
       </c>
       <c r="B275" t="s">
+        <v>347</v>
+      </c>
+      <c r="C275" t="s">
         <v>348</v>
-      </c>
-      <c r="C275" t="s">
-        <v>349</v>
       </c>
       <c r="D275" t="s">
         <v>232</v>
@@ -12418,10 +12418,10 @@
         <v>10079</v>
       </c>
       <c r="B276" t="s">
+        <v>349</v>
+      </c>
+      <c r="C276" t="s">
         <v>350</v>
-      </c>
-      <c r="C276" t="s">
-        <v>351</v>
       </c>
       <c r="D276" t="s">
         <v>235</v>
@@ -12456,10 +12456,10 @@
         <v>10080</v>
       </c>
       <c r="B277" t="s">
+        <v>351</v>
+      </c>
+      <c r="C277" t="s">
         <v>352</v>
-      </c>
-      <c r="C277" t="s">
-        <v>353</v>
       </c>
       <c r="D277" t="s">
         <v>239</v>
@@ -12494,10 +12494,10 @@
         <v>10081</v>
       </c>
       <c r="B278" t="s">
+        <v>353</v>
+      </c>
+      <c r="C278" t="s">
         <v>354</v>
-      </c>
-      <c r="C278" t="s">
-        <v>355</v>
       </c>
       <c r="D278" t="s">
         <v>201</v>
@@ -12532,10 +12532,10 @@
         <v>10082</v>
       </c>
       <c r="B279" t="s">
+        <v>355</v>
+      </c>
+      <c r="C279" t="s">
         <v>356</v>
-      </c>
-      <c r="C279" t="s">
-        <v>357</v>
       </c>
       <c r="D279" t="s">
         <v>205</v>
@@ -12570,10 +12570,10 @@
         <v>10083</v>
       </c>
       <c r="B280" t="s">
+        <v>357</v>
+      </c>
+      <c r="C280" t="s">
         <v>358</v>
-      </c>
-      <c r="C280" t="s">
-        <v>359</v>
       </c>
       <c r="D280" t="s">
         <v>209</v>
